--- a/DRLab.Web/TemplatesExport/TestingReport.xlsx
+++ b/DRLab.Web/TemplatesExport/TestingReport.xlsx
@@ -15,7 +15,7 @@
     <sheet name="TestingReport" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">TestingReport!$A$1:$Q$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">TestingReport!$A$1:$R$29</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="78">
   <si>
     <t xml:space="preserve">     PHUOC HOA RUBBER JOINT STOCK COMPANY</t>
   </si>
@@ -96,9 +96,6 @@
   </si>
   <si>
     <t>GOCPL SI NO. 98052816</t>
-  </si>
-  <si>
-    <t>Unit</t>
   </si>
   <si>
     <t>(Accreditation number:    VILAS 062)</t>
@@ -240,6 +237,57 @@
     </r>
   </si>
   <si>
+    <t>Test results of lot No</t>
+  </si>
+  <si>
+    <t>Số:</t>
+  </si>
+  <si>
+    <t>Số lượng:</t>
+  </si>
+  <si>
+    <t>TCVN 6089:2016</t>
+  </si>
+  <si>
+    <t>(ISO 249:2016)</t>
+  </si>
+  <si>
+    <t>TCVN 6087:2010</t>
+  </si>
+  <si>
+    <t>(ISO 247:2006)</t>
+  </si>
+  <si>
+    <t>TCVN 6088-1:2014</t>
+  </si>
+  <si>
+    <t>(ISO 248-1:2011)</t>
+  </si>
+  <si>
+    <t>TCVN 6091:2016</t>
+  </si>
+  <si>
+    <t>(ISO 1656:2014)</t>
+  </si>
+  <si>
+    <t>TCVN 8493:2010</t>
+  </si>
+  <si>
+    <t>(ISO 2007:2007)</t>
+  </si>
+  <si>
+    <t>TCVN 8494:2010</t>
+  </si>
+  <si>
+    <t>(ISO 2930:2009)</t>
+  </si>
+  <si>
+    <t>%wt</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
     <t>7. Mooney viscosity</t>
   </si>
   <si>
@@ -266,6 +314,30 @@
       <t>C</t>
     </r>
   </si>
+  <si>
+    <t>0.08 max</t>
+  </si>
+  <si>
+    <t>0.60 max</t>
+  </si>
+  <si>
+    <t>0.80 max</t>
+  </si>
+  <si>
+    <t>30 min</t>
+  </si>
+  <si>
+    <t>50 min</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>TCVN 6090-1:2015</t>
+  </si>
+  <si>
+    <t>(ISO 289-1:2015)</t>
+  </si>
 </sst>
 </file>
 
@@ -275,7 +347,7 @@
     <numFmt numFmtId="164" formatCode="mmmm\ d\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="63">
+  <fonts count="64">
     <font>
       <sz val="11"/>
       <name val="VNI-Times"/>
@@ -645,8 +717,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -659,8 +737,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -799,24 +883,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFFF0000"/>
       </left>
       <right style="thin">
@@ -883,11 +949,186 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="241">
+  <cellXfs count="253">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1100,15 +1341,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="38" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="41" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1120,9 +1352,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="58" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1180,15 +1409,6 @@
     <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1198,8 +1418,159 @@
     <xf numFmtId="0" fontId="59" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1210,195 +1581,81 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1679,28 +1936,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS109"/>
+  <dimension ref="A1:AT109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8984375" defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="4" width="8.8984375" style="4"/>
-    <col min="5" max="6" width="5.69921875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="8.8984375" style="149" customWidth="1"/>
-    <col min="8" max="8" width="5.69921875" style="4" customWidth="1"/>
-    <col min="9" max="9" width="4.5" style="4" customWidth="1"/>
-    <col min="10" max="11" width="16.09765625" style="4" customWidth="1"/>
-    <col min="12" max="12" width="10" style="4" customWidth="1"/>
-    <col min="13" max="13" width="10.5" style="4" customWidth="1"/>
-    <col min="14" max="19" width="11.296875" style="4" customWidth="1"/>
-    <col min="20" max="16384" width="8.8984375" style="4"/>
+    <col min="5" max="7" width="8.69921875" style="4" customWidth="1"/>
+    <col min="8" max="8" width="8.69921875" style="145" customWidth="1"/>
+    <col min="9" max="9" width="5.69921875" style="4" customWidth="1"/>
+    <col min="10" max="10" width="4.5" style="4" customWidth="1"/>
+    <col min="11" max="12" width="16.09765625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="10" style="4" customWidth="1"/>
+    <col min="14" max="14" width="10.5" style="4" customWidth="1"/>
+    <col min="15" max="20" width="11.296875" style="4" customWidth="1"/>
+    <col min="21" max="16384" width="8.8984375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="2.25" customHeight="1"/>
-    <row r="2" spans="1:45" s="10" customFormat="1" ht="15" customHeight="1">
+    <row r="1" spans="1:46" ht="2.25" customHeight="1"/>
+    <row r="2" spans="1:46" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -1709,18 +1966,19 @@
       <c r="D2" s="8"/>
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="146"/>
       <c r="I2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="9"/>
+      <c r="J2" s="8"/>
+      <c r="L2" s="8"/>
       <c r="M2" s="9"/>
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
-    </row>
-    <row r="3" spans="1:45" s="10" customFormat="1" ht="13.5" customHeight="1">
+      <c r="R2" s="9"/>
+    </row>
+    <row r="3" spans="1:46" s="10" customFormat="1" ht="13.5" customHeight="1">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
@@ -1729,18 +1987,19 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="146"/>
       <c r="I3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="11"/>
+      <c r="J3" s="8"/>
+      <c r="L3" s="8"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
-    </row>
-    <row r="4" spans="1:45" s="10" customFormat="1" ht="13.5" customHeight="1">
+      <c r="R3" s="11"/>
+    </row>
+    <row r="4" spans="1:46" s="10" customFormat="1" ht="13.5" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
@@ -1749,18 +2008,19 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="146"/>
       <c r="I4" s="8"/>
-      <c r="K4" s="8"/>
+      <c r="J4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
       <c r="N4" s="8"/>
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
-    </row>
-    <row r="5" spans="1:45" s="10" customFormat="1" ht="13.5" customHeight="1">
+      <c r="R4" s="8"/>
+    </row>
+    <row r="5" spans="1:46" s="10" customFormat="1" ht="13.5" customHeight="1">
       <c r="A5" s="13" t="s">
         <v>3</v>
       </c>
@@ -1769,86 +2029,89 @@
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
-      <c r="G5" s="151"/>
-      <c r="H5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="147"/>
       <c r="I5" s="12"/>
-      <c r="K5" s="12"/>
+      <c r="J5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
       <c r="O5" s="12"/>
       <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
-      <c r="R5" s="14"/>
+      <c r="R5" s="12"/>
       <c r="S5" s="14"/>
       <c r="T5" s="14"/>
-    </row>
-    <row r="6" spans="1:45" s="10" customFormat="1" ht="6.75" customHeight="1" thickBot="1">
+      <c r="U5" s="14"/>
+    </row>
+    <row r="6" spans="1:46" s="10" customFormat="1" ht="6.75" customHeight="1" thickBot="1">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
       <c r="E6" s="15"/>
       <c r="F6" s="15"/>
-      <c r="G6" s="152"/>
-      <c r="H6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="148"/>
       <c r="I6" s="15"/>
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
-      <c r="L6" s="12"/>
+      <c r="L6" s="15"/>
       <c r="M6" s="12"/>
       <c r="N6" s="12"/>
       <c r="O6" s="12"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
-    </row>
-    <row r="7" spans="1:45" s="10" customFormat="1" ht="27" customHeight="1">
-      <c r="A7" s="174" t="s">
+      <c r="R6" s="12"/>
+    </row>
+    <row r="7" spans="1:46" s="10" customFormat="1" ht="27" customHeight="1">
+      <c r="A7" s="226" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="174"/>
-      <c r="C7" s="174"/>
-      <c r="D7" s="174"/>
-      <c r="E7" s="174"/>
-      <c r="F7" s="174"/>
-      <c r="G7" s="174"/>
-      <c r="H7" s="174"/>
-      <c r="I7" s="174"/>
-      <c r="J7" s="174"/>
-      <c r="K7" s="174"/>
-      <c r="L7" s="171" t="s">
+      <c r="B7" s="226"/>
+      <c r="C7" s="226"/>
+      <c r="D7" s="226"/>
+      <c r="E7" s="226"/>
+      <c r="F7" s="226"/>
+      <c r="G7" s="226"/>
+      <c r="H7" s="226"/>
+      <c r="I7" s="226"/>
+      <c r="J7" s="226"/>
+      <c r="K7" s="226"/>
+      <c r="L7" s="226"/>
+      <c r="M7" s="164" t="s">
+        <v>37</v>
+      </c>
+      <c r="N7" s="137"/>
+      <c r="O7" s="137"/>
+      <c r="P7" s="137"/>
+      <c r="Q7" s="137"/>
+      <c r="R7" s="137"/>
+      <c r="S7" s="16"/>
+    </row>
+    <row r="8" spans="1:46" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="A8" s="227" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="227"/>
+      <c r="C8" s="227"/>
+      <c r="D8" s="227"/>
+      <c r="E8" s="227"/>
+      <c r="F8" s="227"/>
+      <c r="G8" s="227"/>
+      <c r="H8" s="227"/>
+      <c r="I8" s="227"/>
+      <c r="J8" s="227"/>
+      <c r="K8" s="227"/>
+      <c r="L8" s="227"/>
+      <c r="M8" s="164" t="s">
         <v>38</v>
       </c>
-      <c r="M7" s="140"/>
-      <c r="N7" s="140"/>
-      <c r="O7" s="140"/>
-      <c r="P7" s="140"/>
-      <c r="Q7" s="140"/>
-      <c r="R7" s="16"/>
-    </row>
-    <row r="8" spans="1:45" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A8" s="175" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="175"/>
-      <c r="C8" s="175"/>
-      <c r="D8" s="175"/>
-      <c r="E8" s="175"/>
-      <c r="F8" s="175"/>
-      <c r="G8" s="175"/>
-      <c r="H8" s="175"/>
-      <c r="I8" s="175"/>
-      <c r="J8" s="175"/>
-      <c r="K8" s="175"/>
-      <c r="L8" s="171" t="s">
-        <v>39</v>
-      </c>
-      <c r="M8" s="22"/>
       <c r="N8" s="22"/>
       <c r="O8" s="22"/>
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
-      <c r="R8" s="17"/>
+      <c r="R8" s="22"/>
       <c r="S8" s="17"/>
       <c r="T8" s="17"/>
       <c r="U8" s="17"/>
@@ -1856,28 +2119,29 @@
       <c r="W8" s="17"/>
       <c r="X8" s="17"/>
       <c r="Y8" s="17"/>
-    </row>
-    <row r="9" spans="1:45" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A9" s="175" t="s">
+      <c r="Z8" s="17"/>
+    </row>
+    <row r="9" spans="1:46" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="A9" s="227" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="175"/>
-      <c r="C9" s="175"/>
-      <c r="D9" s="175"/>
-      <c r="E9" s="175"/>
-      <c r="F9" s="175"/>
-      <c r="G9" s="175"/>
-      <c r="H9" s="175"/>
-      <c r="I9" s="175"/>
-      <c r="J9" s="175"/>
-      <c r="K9" s="175"/>
-      <c r="L9" s="22"/>
+      <c r="B9" s="227"/>
+      <c r="C9" s="227"/>
+      <c r="D9" s="227"/>
+      <c r="E9" s="227"/>
+      <c r="F9" s="227"/>
+      <c r="G9" s="227"/>
+      <c r="H9" s="227"/>
+      <c r="I9" s="227"/>
+      <c r="J9" s="227"/>
+      <c r="K9" s="227"/>
+      <c r="L9" s="227"/>
       <c r="M9" s="22"/>
       <c r="N9" s="22"/>
       <c r="O9" s="22"/>
       <c r="P9" s="22"/>
       <c r="Q9" s="22"/>
-      <c r="R9" s="17"/>
+      <c r="R9" s="22"/>
       <c r="S9" s="17"/>
       <c r="T9" s="17"/>
       <c r="U9" s="17"/>
@@ -1885,28 +2149,29 @@
       <c r="W9" s="17"/>
       <c r="X9" s="17"/>
       <c r="Y9" s="17"/>
-    </row>
-    <row r="10" spans="1:45" s="21" customFormat="1" ht="15" customHeight="1">
-      <c r="A10" s="175" t="s">
+      <c r="Z9" s="17"/>
+    </row>
+    <row r="10" spans="1:46" s="21" customFormat="1" ht="15" customHeight="1">
+      <c r="A10" s="227" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="175"/>
-      <c r="C10" s="175"/>
-      <c r="D10" s="175"/>
-      <c r="E10" s="175"/>
-      <c r="F10" s="175"/>
-      <c r="G10" s="175"/>
-      <c r="H10" s="175"/>
-      <c r="I10" s="175"/>
-      <c r="J10" s="175"/>
-      <c r="K10" s="175"/>
-      <c r="L10" s="22"/>
+      <c r="B10" s="227"/>
+      <c r="C10" s="227"/>
+      <c r="D10" s="227"/>
+      <c r="E10" s="227"/>
+      <c r="F10" s="227"/>
+      <c r="G10" s="227"/>
+      <c r="H10" s="227"/>
+      <c r="I10" s="227"/>
+      <c r="J10" s="227"/>
+      <c r="K10" s="227"/>
+      <c r="L10" s="227"/>
       <c r="M10" s="22"/>
       <c r="N10" s="22"/>
       <c r="O10" s="22"/>
       <c r="P10" s="22"/>
       <c r="Q10" s="22"/>
-      <c r="R10" s="20"/>
+      <c r="R10" s="22"/>
       <c r="S10" s="20"/>
       <c r="T10" s="20"/>
       <c r="U10" s="20"/>
@@ -1914,28 +2179,29 @@
       <c r="W10" s="20"/>
       <c r="X10" s="20"/>
       <c r="Y10" s="20"/>
-    </row>
-    <row r="11" spans="1:45" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A11" s="175" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="175"/>
-      <c r="C11" s="175"/>
-      <c r="D11" s="175"/>
-      <c r="E11" s="175"/>
-      <c r="F11" s="175"/>
-      <c r="G11" s="175"/>
-      <c r="H11" s="175"/>
-      <c r="I11" s="175"/>
-      <c r="J11" s="175"/>
-      <c r="K11" s="175"/>
-      <c r="L11" s="22"/>
+      <c r="Z10" s="20"/>
+    </row>
+    <row r="11" spans="1:46" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="A11" s="227" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="227"/>
+      <c r="C11" s="227"/>
+      <c r="D11" s="227"/>
+      <c r="E11" s="227"/>
+      <c r="F11" s="227"/>
+      <c r="G11" s="227"/>
+      <c r="H11" s="227"/>
+      <c r="I11" s="227"/>
+      <c r="J11" s="227"/>
+      <c r="K11" s="227"/>
+      <c r="L11" s="227"/>
       <c r="M11" s="22"/>
       <c r="N11" s="22"/>
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
       <c r="Q11" s="22"/>
-      <c r="R11" s="17"/>
+      <c r="R11" s="22"/>
       <c r="S11" s="17"/>
       <c r="T11" s="17"/>
       <c r="U11" s="17"/>
@@ -1943,26 +2209,27 @@
       <c r="W11" s="17"/>
       <c r="X11" s="17"/>
       <c r="Y11" s="17"/>
-    </row>
-    <row r="12" spans="1:45" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="Z11" s="17"/>
+    </row>
+    <row r="12" spans="1:46" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="22"/>
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
       <c r="D12" s="19"/>
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
-      <c r="G12" s="147"/>
-      <c r="H12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="143"/>
       <c r="I12" s="22"/>
       <c r="J12" s="22"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="23"/>
       <c r="M12" s="22"/>
       <c r="N12" s="22"/>
       <c r="O12" s="22"/>
       <c r="P12" s="22"/>
       <c r="Q12" s="22"/>
-      <c r="R12" s="17"/>
+      <c r="R12" s="22"/>
       <c r="S12" s="17"/>
       <c r="T12" s="17"/>
       <c r="U12" s="17"/>
@@ -1970,31 +2237,32 @@
       <c r="W12" s="17"/>
       <c r="X12" s="17"/>
       <c r="Y12" s="17"/>
-    </row>
-    <row r="13" spans="1:45" s="10" customFormat="1" ht="21" customHeight="1">
-      <c r="A13" s="173" t="s">
+      <c r="Z12" s="17"/>
+    </row>
+    <row r="13" spans="1:46" s="10" customFormat="1" ht="21" customHeight="1">
+      <c r="A13" s="225" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="173"/>
-      <c r="C13" s="173"/>
-      <c r="D13" s="173"/>
-      <c r="E13" s="173"/>
-      <c r="F13" s="173"/>
-      <c r="G13" s="173"/>
-      <c r="H13" s="173"/>
-      <c r="I13" s="173"/>
-      <c r="J13" s="173"/>
-      <c r="K13" s="173"/>
-      <c r="L13" s="139"/>
-      <c r="M13" s="139"/>
-      <c r="N13" s="139"/>
-      <c r="O13" s="139"/>
-      <c r="P13" s="139"/>
-      <c r="Q13" s="139"/>
-      <c r="R13" s="24"/>
-      <c r="S13" s="25"/>
+      <c r="B13" s="225"/>
+      <c r="C13" s="225"/>
+      <c r="D13" s="225"/>
+      <c r="E13" s="225"/>
+      <c r="F13" s="225"/>
+      <c r="G13" s="225"/>
+      <c r="H13" s="225"/>
+      <c r="I13" s="225"/>
+      <c r="J13" s="225"/>
+      <c r="K13" s="225"/>
+      <c r="L13" s="225"/>
+      <c r="M13" s="136"/>
+      <c r="N13" s="136"/>
+      <c r="O13" s="136"/>
+      <c r="P13" s="136"/>
+      <c r="Q13" s="136"/>
+      <c r="R13" s="136"/>
+      <c r="S13" s="24"/>
       <c r="T13" s="25"/>
-      <c r="U13" s="26"/>
+      <c r="U13" s="25"/>
       <c r="V13" s="26"/>
       <c r="W13" s="26"/>
       <c r="X13" s="26"/>
@@ -2019,8 +2287,9 @@
       <c r="AQ13" s="26"/>
       <c r="AR13" s="26"/>
       <c r="AS13" s="26"/>
-    </row>
-    <row r="14" spans="1:45" s="10" customFormat="1" ht="14.25" customHeight="1">
+      <c r="AT13" s="26"/>
+    </row>
+    <row r="14" spans="1:46" s="10" customFormat="1" ht="14.25" customHeight="1">
       <c r="A14" s="27"/>
       <c r="B14" s="27"/>
       <c r="C14" s="27"/>
@@ -2032,18 +2301,18 @@
       <c r="I14" s="27"/>
       <c r="J14" s="27"/>
       <c r="K14" s="27"/>
-      <c r="L14" s="176"/>
-      <c r="M14" s="176"/>
-      <c r="N14" s="176"/>
-      <c r="O14" s="176"/>
-      <c r="P14" s="176"/>
-      <c r="Q14" s="176"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="29"/>
-      <c r="T14" s="25"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="216"/>
+      <c r="N14" s="216"/>
+      <c r="O14" s="216"/>
+      <c r="P14" s="216"/>
+      <c r="Q14" s="216"/>
+      <c r="R14" s="216"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="29"/>
       <c r="U14" s="25"/>
-      <c r="V14" s="30"/>
-      <c r="W14" s="25"/>
+      <c r="V14" s="25"/>
+      <c r="W14" s="30"/>
       <c r="X14" s="25"/>
       <c r="Y14" s="25"/>
       <c r="Z14" s="25"/>
@@ -2066,8 +2335,9 @@
       <c r="AQ14" s="25"/>
       <c r="AR14" s="25"/>
       <c r="AS14" s="25"/>
-    </row>
-    <row r="15" spans="1:45" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="AT14" s="25"/>
+    </row>
+    <row r="15" spans="1:46" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="18" t="s">
         <v>9</v>
       </c>
@@ -2076,25 +2346,29 @@
       <c r="D15" s="31"/>
       <c r="E15" s="31"/>
       <c r="F15" s="31"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="37"/>
       <c r="I15" s="31"/>
-      <c r="J15" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="K15" s="31"/>
-      <c r="L15" s="138"/>
-      <c r="M15" s="113"/>
-      <c r="N15" s="113"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" s="31"/>
+      <c r="M15" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="N15" s="29">
+        <v>46</v>
+      </c>
       <c r="O15" s="113"/>
       <c r="P15" s="113"/>
-      <c r="Q15" s="116"/>
-      <c r="R15" s="25"/>
-      <c r="S15" s="29"/>
-      <c r="T15" s="25"/>
+      <c r="Q15" s="113"/>
+      <c r="R15" s="116"/>
+      <c r="S15" s="25"/>
+      <c r="T15" s="29"/>
       <c r="U15" s="25"/>
-      <c r="V15" s="30"/>
-      <c r="W15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="30"/>
       <c r="X15" s="25"/>
       <c r="Y15" s="25"/>
       <c r="Z15" s="25"/>
@@ -2117,34 +2391,42 @@
       <c r="AQ15" s="25"/>
       <c r="AR15" s="25"/>
       <c r="AS15" s="25"/>
-    </row>
-    <row r="16" spans="1:45" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="AT15" s="25"/>
+    </row>
+    <row r="16" spans="1:46" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="18" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="19"/>
       <c r="C16" s="18"/>
-      <c r="D16" s="193"/>
-      <c r="E16" s="193"/>
-      <c r="F16" s="193"/>
-      <c r="G16" s="193"/>
-      <c r="H16" s="193"/>
-      <c r="I16" s="193"/>
-      <c r="J16" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="K16" s="22"/>
-      <c r="L16" s="137"/>
-      <c r="M16" s="118"/>
-      <c r="N16" s="118"/>
+      <c r="D16" s="222"/>
+      <c r="E16" s="222"/>
+      <c r="F16" s="222"/>
+      <c r="G16" s="222"/>
+      <c r="H16" s="222"/>
+      <c r="I16" s="222"/>
+      <c r="J16" s="222"/>
+      <c r="K16" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="L16" s="22">
+        <f>N16</f>
+        <v>20.16</v>
+      </c>
+      <c r="M16" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="N16" s="29">
+        <v>20.16</v>
+      </c>
       <c r="O16" s="118"/>
       <c r="P16" s="118"/>
-      <c r="R16" s="25"/>
-      <c r="S16" s="32"/>
-      <c r="T16" s="25"/>
+      <c r="Q16" s="118"/>
+      <c r="S16" s="25"/>
+      <c r="T16" s="32"/>
       <c r="U16" s="25"/>
-      <c r="V16" s="30"/>
-      <c r="W16" s="25"/>
+      <c r="V16" s="25"/>
+      <c r="W16" s="30"/>
       <c r="X16" s="25"/>
       <c r="Y16" s="25"/>
       <c r="Z16" s="25"/>
@@ -2167,8 +2449,9 @@
       <c r="AQ16" s="25"/>
       <c r="AR16" s="25"/>
       <c r="AS16" s="25"/>
-    </row>
-    <row r="17" spans="1:45" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="AT16" s="25"/>
+    </row>
+    <row r="17" spans="1:46" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="18" t="s">
         <v>11</v>
       </c>
@@ -2177,22 +2460,22 @@
       <c r="D17" s="18"/>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
-      <c r="G17" s="147"/>
-      <c r="H17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="143"/>
       <c r="I17" s="18"/>
-      <c r="J17" s="170" t="s">
-        <v>41</v>
-      </c>
-      <c r="K17" s="18"/>
-      <c r="L17" s="136"/>
-      <c r="M17" s="112"/>
-      <c r="N17" s="112"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="163" t="s">
+        <v>40</v>
+      </c>
+      <c r="L17" s="18"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="32"/>
       <c r="O17" s="112"/>
       <c r="P17" s="112"/>
-      <c r="Q17" s="117"/>
-      <c r="R17" s="33"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="25"/>
+      <c r="Q17" s="112"/>
+      <c r="R17" s="117"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="34"/>
       <c r="U17" s="25"/>
       <c r="V17" s="25"/>
       <c r="W17" s="25"/>
@@ -2218,39 +2501,37 @@
       <c r="AQ17" s="25"/>
       <c r="AR17" s="25"/>
       <c r="AS17" s="25"/>
-    </row>
-    <row r="18" spans="1:45" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="AT17" s="25"/>
+    </row>
+    <row r="18" spans="1:46" s="10" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="2"/>
-      <c r="C18" s="177" t="e">
+      <c r="C18" s="217" t="e">
         <f>#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="D18" s="177"/>
-      <c r="E18" s="177" t="e">
+      <c r="D18" s="217"/>
+      <c r="E18" s="217"/>
+      <c r="F18" s="217"/>
+      <c r="G18" s="217"/>
+      <c r="H18" s="217"/>
+      <c r="I18" s="217"/>
+      <c r="J18" s="217" t="e">
         <f>#REF!&amp;#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="F18" s="177"/>
-      <c r="G18" s="178"/>
-      <c r="H18" s="178"/>
-      <c r="I18" s="178" t="e">
-        <f>#REF!&amp;#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J18" s="178"/>
-      <c r="K18" s="178"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
+      <c r="K18" s="217"/>
+      <c r="L18" s="217"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="34"/>
       <c r="O18" s="3"/>
       <c r="P18" s="3"/>
       <c r="Q18" s="3"/>
-      <c r="R18" s="35"/>
-      <c r="S18" s="36"/>
-      <c r="T18" s="25"/>
+      <c r="R18" s="3"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="36"/>
       <c r="U18" s="25"/>
       <c r="V18" s="25"/>
       <c r="W18" s="25"/>
@@ -2276,36 +2557,37 @@
       <c r="AQ18" s="25"/>
       <c r="AR18" s="25"/>
       <c r="AS18" s="25"/>
-    </row>
-    <row r="19" spans="1:45" s="10" customFormat="1" ht="15" customHeight="1">
-      <c r="A19" s="199" t="s">
+      <c r="AT18" s="25"/>
+    </row>
+    <row r="19" spans="1:46" s="10" customFormat="1" ht="15" customHeight="1">
+      <c r="A19" s="205" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="200"/>
-      <c r="C19" s="200"/>
-      <c r="D19" s="201"/>
-      <c r="E19" s="199" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="200"/>
-      <c r="G19" s="167"/>
-      <c r="H19" s="189"/>
-      <c r="I19" s="190"/>
-      <c r="J19" s="185" t="s">
+      <c r="B19" s="206"/>
+      <c r="C19" s="206"/>
+      <c r="D19" s="207"/>
+      <c r="E19" s="223" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="223"/>
+      <c r="G19" s="223"/>
+      <c r="H19" s="224"/>
+      <c r="I19" s="218"/>
+      <c r="J19" s="219"/>
+      <c r="K19" s="206" t="s">
         <v>15</v>
       </c>
-      <c r="K19" s="186"/>
-      <c r="L19" s="123"/>
+      <c r="L19" s="207"/>
       <c r="M19" s="123"/>
       <c r="N19" s="123"/>
       <c r="O19" s="123"/>
       <c r="P19" s="123"/>
-      <c r="Q19" s="4"/>
-      <c r="R19" s="18"/>
-      <c r="S19" s="19"/>
-      <c r="T19" s="25"/>
+      <c r="Q19" s="123"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="19"/>
       <c r="U19" s="25"/>
-      <c r="V19" s="18"/>
+      <c r="V19" s="25"/>
       <c r="W19" s="18"/>
       <c r="X19" s="18"/>
       <c r="Y19" s="18"/>
@@ -2319,32 +2601,33 @@
       <c r="AG19" s="18"/>
       <c r="AH19" s="18"/>
       <c r="AI19" s="18"/>
-      <c r="AJ19" s="31"/>
+      <c r="AJ19" s="18"/>
       <c r="AK19" s="31"/>
-      <c r="AL19" s="25"/>
+      <c r="AL19" s="31"/>
       <c r="AM19" s="25"/>
-    </row>
-    <row r="20" spans="1:45" s="10" customFormat="1" ht="16.2">
-      <c r="A20" s="202"/>
-      <c r="B20" s="203"/>
-      <c r="C20" s="203"/>
-      <c r="D20" s="204"/>
-      <c r="E20" s="202"/>
-      <c r="F20" s="203"/>
-      <c r="G20" s="168"/>
-      <c r="H20" s="191"/>
-      <c r="I20" s="192"/>
-      <c r="J20" s="187"/>
-      <c r="K20" s="188"/>
-      <c r="L20" s="4"/>
+      <c r="AN19" s="25"/>
+    </row>
+    <row r="20" spans="1:46" s="10" customFormat="1" ht="16.2">
+      <c r="A20" s="208"/>
+      <c r="B20" s="209"/>
+      <c r="C20" s="209"/>
+      <c r="D20" s="210"/>
+      <c r="E20" s="170"/>
+      <c r="F20" s="167"/>
+      <c r="G20" s="167"/>
+      <c r="H20" s="166"/>
+      <c r="I20" s="220"/>
+      <c r="J20" s="221"/>
+      <c r="K20" s="209"/>
+      <c r="L20" s="210"/>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
       <c r="O20" s="4"/>
-      <c r="P20" s="18"/>
+      <c r="P20" s="4"/>
       <c r="Q20" s="18"/>
-      <c r="R20" s="25"/>
+      <c r="R20" s="18"/>
       <c r="S20" s="25"/>
-      <c r="T20" s="18"/>
+      <c r="T20" s="25"/>
       <c r="U20" s="18"/>
       <c r="V20" s="18"/>
       <c r="W20" s="18"/>
@@ -2358,34 +2641,39 @@
       <c r="AE20" s="18"/>
       <c r="AF20" s="18"/>
       <c r="AG20" s="18"/>
-      <c r="AH20" s="31"/>
+      <c r="AH20" s="18"/>
       <c r="AI20" s="31"/>
-      <c r="AJ20" s="25"/>
+      <c r="AJ20" s="31"/>
       <c r="AK20" s="25"/>
-    </row>
-    <row r="21" spans="1:45" s="10" customFormat="1" ht="16.2">
-      <c r="A21" s="217" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="218"/>
-      <c r="C21" s="218"/>
-      <c r="D21" s="219"/>
-      <c r="E21" s="216"/>
-      <c r="F21" s="195"/>
-      <c r="G21" s="146"/>
-      <c r="H21" s="194"/>
-      <c r="I21" s="195"/>
-      <c r="J21" s="183"/>
-      <c r="K21" s="180"/>
-      <c r="L21" s="4"/>
+      <c r="AL20" s="25"/>
+    </row>
+    <row r="21" spans="1:46" s="10" customFormat="1" ht="16.2">
+      <c r="A21" s="176" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="177"/>
+      <c r="C21" s="178"/>
+      <c r="D21" s="179"/>
+      <c r="E21" s="212"/>
+      <c r="F21" s="214"/>
+      <c r="G21" s="214"/>
+      <c r="H21" s="214"/>
+      <c r="I21" s="200" t="s">
+        <v>70</v>
+      </c>
+      <c r="J21" s="201"/>
+      <c r="K21" s="200" t="s">
+        <v>54</v>
+      </c>
+      <c r="L21" s="201"/>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
       <c r="O21" s="4"/>
-      <c r="P21" s="18"/>
+      <c r="P21" s="4"/>
       <c r="Q21" s="18"/>
-      <c r="R21" s="25"/>
+      <c r="R21" s="18"/>
       <c r="S21" s="25"/>
-      <c r="T21" s="18"/>
+      <c r="T21" s="25"/>
       <c r="U21" s="18"/>
       <c r="V21" s="18"/>
       <c r="W21" s="18"/>
@@ -2399,34 +2687,39 @@
       <c r="AE21" s="18"/>
       <c r="AF21" s="18"/>
       <c r="AG21" s="18"/>
-      <c r="AH21" s="31"/>
+      <c r="AH21" s="18"/>
       <c r="AI21" s="31"/>
-      <c r="AJ21" s="25"/>
+      <c r="AJ21" s="31"/>
       <c r="AK21" s="25"/>
-    </row>
-    <row r="22" spans="1:45" s="10" customFormat="1" ht="16.2">
-      <c r="A22" s="220" t="s">
-        <v>44</v>
-      </c>
-      <c r="B22" s="221"/>
-      <c r="C22" s="221"/>
-      <c r="D22" s="222"/>
-      <c r="E22" s="214"/>
-      <c r="F22" s="197"/>
-      <c r="G22" s="172"/>
-      <c r="H22" s="196"/>
-      <c r="I22" s="197"/>
-      <c r="J22" s="184"/>
-      <c r="K22" s="182"/>
-      <c r="L22" s="4"/>
+      <c r="AL21" s="25"/>
+    </row>
+    <row r="22" spans="1:46" s="10" customFormat="1" ht="16.2">
+      <c r="A22" s="180" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="181"/>
+      <c r="C22" s="181"/>
+      <c r="D22" s="182" t="s">
+        <v>66</v>
+      </c>
+      <c r="E22" s="213"/>
+      <c r="F22" s="215"/>
+      <c r="G22" s="215"/>
+      <c r="H22" s="215"/>
+      <c r="I22" s="202"/>
+      <c r="J22" s="203"/>
+      <c r="K22" s="202" t="s">
+        <v>55</v>
+      </c>
+      <c r="L22" s="203"/>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
       <c r="O22" s="4"/>
-      <c r="P22" s="169"/>
-      <c r="Q22" s="19"/>
-      <c r="R22" s="25"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="162"/>
+      <c r="R22" s="19"/>
       <c r="S22" s="25"/>
-      <c r="T22" s="18"/>
+      <c r="T22" s="25"/>
       <c r="U22" s="18"/>
       <c r="V22" s="18"/>
       <c r="W22" s="18"/>
@@ -2440,27 +2733,34 @@
       <c r="AE22" s="18"/>
       <c r="AF22" s="18"/>
       <c r="AG22" s="18"/>
-      <c r="AH22" s="31"/>
+      <c r="AH22" s="18"/>
       <c r="AI22" s="31"/>
-      <c r="AJ22" s="25"/>
+      <c r="AJ22" s="31"/>
       <c r="AK22" s="25"/>
-    </row>
-    <row r="23" spans="1:45" ht="16.2" customHeight="1">
-      <c r="A23" s="210" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="211"/>
-      <c r="C23" s="211"/>
-      <c r="D23" s="215"/>
-      <c r="E23" s="194"/>
-      <c r="F23" s="195"/>
-      <c r="G23" s="146"/>
-      <c r="H23" s="194"/>
-      <c r="I23" s="195"/>
-      <c r="J23" s="179"/>
-      <c r="K23" s="180"/>
-      <c r="O23" s="8"/>
-      <c r="P23" s="18"/>
+      <c r="AL22" s="25"/>
+    </row>
+    <row r="23" spans="1:46" ht="16.2" customHeight="1">
+      <c r="A23" s="228" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="229"/>
+      <c r="C23" s="229"/>
+      <c r="D23" s="232" t="s">
+        <v>66</v>
+      </c>
+      <c r="E23" s="212"/>
+      <c r="F23" s="214"/>
+      <c r="G23" s="214"/>
+      <c r="H23" s="214"/>
+      <c r="I23" s="200" t="s">
+        <v>71</v>
+      </c>
+      <c r="J23" s="201"/>
+      <c r="K23" s="200" t="s">
+        <v>56</v>
+      </c>
+      <c r="L23" s="201"/>
+      <c r="P23" s="8"/>
       <c r="Q23" s="18"/>
       <c r="R23" s="18"/>
       <c r="S23" s="18"/>
@@ -2468,14 +2768,14 @@
       <c r="U23" s="18"/>
       <c r="V23" s="18"/>
       <c r="W23" s="18"/>
-      <c r="X23" s="19"/>
-      <c r="Y23" s="37"/>
+      <c r="X23" s="18"/>
+      <c r="Y23" s="19"/>
       <c r="Z23" s="37"/>
       <c r="AA23" s="37"/>
       <c r="AB23" s="37"/>
-      <c r="AC23" s="18"/>
+      <c r="AC23" s="37"/>
       <c r="AD23" s="18"/>
-      <c r="AE23" s="31"/>
+      <c r="AE23" s="18"/>
       <c r="AF23" s="31"/>
       <c r="AG23" s="31"/>
       <c r="AH23" s="31"/>
@@ -2487,20 +2787,23 @@
       <c r="AN23" s="31"/>
       <c r="AO23" s="31"/>
       <c r="AP23" s="31"/>
-    </row>
-    <row r="24" spans="1:45" ht="16.2" customHeight="1">
-      <c r="A24" s="208"/>
-      <c r="B24" s="209"/>
-      <c r="C24" s="209"/>
-      <c r="D24" s="213"/>
-      <c r="E24" s="196"/>
-      <c r="F24" s="197"/>
-      <c r="G24" s="166"/>
-      <c r="H24" s="196"/>
-      <c r="I24" s="197"/>
-      <c r="J24" s="181"/>
-      <c r="K24" s="182"/>
-      <c r="O24" s="18"/>
+      <c r="AQ23" s="31"/>
+    </row>
+    <row r="24" spans="1:46" ht="16.2" customHeight="1">
+      <c r="A24" s="230"/>
+      <c r="B24" s="231"/>
+      <c r="C24" s="231"/>
+      <c r="D24" s="233"/>
+      <c r="E24" s="213"/>
+      <c r="F24" s="215"/>
+      <c r="G24" s="215"/>
+      <c r="H24" s="215"/>
+      <c r="I24" s="202"/>
+      <c r="J24" s="203"/>
+      <c r="K24" s="202" t="s">
+        <v>57</v>
+      </c>
+      <c r="L24" s="203"/>
       <c r="P24" s="18"/>
       <c r="Q24" s="18"/>
       <c r="R24" s="18"/>
@@ -2516,7 +2819,7 @@
       <c r="AB24" s="18"/>
       <c r="AC24" s="18"/>
       <c r="AD24" s="18"/>
-      <c r="AE24" s="31"/>
+      <c r="AE24" s="18"/>
       <c r="AF24" s="31"/>
       <c r="AG24" s="31"/>
       <c r="AH24" s="31"/>
@@ -2528,22 +2831,29 @@
       <c r="AN24" s="31"/>
       <c r="AO24" s="31"/>
       <c r="AP24" s="31"/>
-    </row>
-    <row r="25" spans="1:45" ht="16.2" customHeight="1">
-      <c r="A25" s="206" t="s">
-        <v>46</v>
-      </c>
-      <c r="B25" s="207"/>
-      <c r="C25" s="207"/>
-      <c r="D25" s="212"/>
-      <c r="E25" s="194"/>
-      <c r="F25" s="195"/>
-      <c r="G25" s="146"/>
-      <c r="H25" s="194"/>
-      <c r="I25" s="195"/>
-      <c r="J25" s="179"/>
-      <c r="K25" s="180"/>
-      <c r="O25" s="8"/>
+      <c r="AQ24" s="31"/>
+    </row>
+    <row r="25" spans="1:46" ht="16.2" customHeight="1">
+      <c r="A25" s="228" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="229"/>
+      <c r="C25" s="229"/>
+      <c r="D25" s="232" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25" s="212"/>
+      <c r="F25" s="214"/>
+      <c r="G25" s="214"/>
+      <c r="H25" s="214"/>
+      <c r="I25" s="200" t="s">
+        <v>72</v>
+      </c>
+      <c r="J25" s="201"/>
+      <c r="K25" s="200" t="s">
+        <v>58</v>
+      </c>
+      <c r="L25" s="201"/>
       <c r="P25" s="8"/>
       <c r="Q25" s="8"/>
       <c r="R25" s="8"/>
@@ -2556,10 +2866,10 @@
       <c r="Y25" s="8"/>
       <c r="Z25" s="8"/>
       <c r="AA25" s="8"/>
-      <c r="AB25" s="5"/>
-      <c r="AC25" s="8"/>
+      <c r="AB25" s="8"/>
+      <c r="AC25" s="5"/>
       <c r="AD25" s="8"/>
-      <c r="AE25" s="31"/>
+      <c r="AE25" s="8"/>
       <c r="AF25" s="31"/>
       <c r="AG25" s="31"/>
       <c r="AH25" s="31"/>
@@ -2571,20 +2881,23 @@
       <c r="AN25" s="31"/>
       <c r="AO25" s="31"/>
       <c r="AP25" s="31"/>
-    </row>
-    <row r="26" spans="1:45" ht="16.2" customHeight="1">
-      <c r="A26" s="208"/>
-      <c r="B26" s="209"/>
-      <c r="C26" s="209"/>
-      <c r="D26" s="213"/>
-      <c r="E26" s="196"/>
-      <c r="F26" s="197"/>
-      <c r="G26" s="166"/>
-      <c r="H26" s="196"/>
-      <c r="I26" s="197"/>
-      <c r="J26" s="181"/>
-      <c r="K26" s="182"/>
-      <c r="O26" s="8"/>
+      <c r="AQ25" s="31"/>
+    </row>
+    <row r="26" spans="1:46" ht="16.2" customHeight="1">
+      <c r="A26" s="230"/>
+      <c r="B26" s="231"/>
+      <c r="C26" s="231"/>
+      <c r="D26" s="233"/>
+      <c r="E26" s="213"/>
+      <c r="F26" s="215"/>
+      <c r="G26" s="247"/>
+      <c r="H26" s="215"/>
+      <c r="I26" s="202"/>
+      <c r="J26" s="203"/>
+      <c r="K26" s="202" t="s">
+        <v>59</v>
+      </c>
+      <c r="L26" s="203"/>
       <c r="P26" s="8"/>
       <c r="Q26" s="8"/>
       <c r="R26" s="8"/>
@@ -2597,10 +2910,10 @@
       <c r="Y26" s="8"/>
       <c r="Z26" s="8"/>
       <c r="AA26" s="8"/>
-      <c r="AB26" s="5"/>
-      <c r="AC26" s="8"/>
+      <c r="AB26" s="8"/>
+      <c r="AC26" s="5"/>
       <c r="AD26" s="8"/>
-      <c r="AE26" s="31"/>
+      <c r="AE26" s="8"/>
       <c r="AF26" s="31"/>
       <c r="AG26" s="31"/>
       <c r="AH26" s="31"/>
@@ -2612,22 +2925,29 @@
       <c r="AN26" s="31"/>
       <c r="AO26" s="31"/>
       <c r="AP26" s="31"/>
-    </row>
-    <row r="27" spans="1:45" ht="16.2" customHeight="1">
-      <c r="A27" s="206" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" s="207"/>
-      <c r="C27" s="207"/>
-      <c r="D27" s="212"/>
-      <c r="E27" s="194"/>
-      <c r="F27" s="195"/>
-      <c r="G27" s="146"/>
-      <c r="H27" s="194"/>
-      <c r="I27" s="195"/>
-      <c r="J27" s="179"/>
-      <c r="K27" s="180"/>
-      <c r="M27" s="31"/>
+      <c r="AQ26" s="31"/>
+    </row>
+    <row r="27" spans="1:46" ht="16.2" customHeight="1">
+      <c r="A27" s="234" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="235"/>
+      <c r="C27" s="235"/>
+      <c r="D27" s="236" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="212"/>
+      <c r="F27" s="245"/>
+      <c r="G27" s="249"/>
+      <c r="H27" s="212"/>
+      <c r="I27" s="200" t="s">
+        <v>71</v>
+      </c>
+      <c r="J27" s="201"/>
+      <c r="K27" s="200" t="s">
+        <v>60</v>
+      </c>
+      <c r="L27" s="201"/>
       <c r="N27" s="31"/>
       <c r="O27" s="31"/>
       <c r="P27" s="31"/>
@@ -2640,7 +2960,7 @@
       <c r="W27" s="31"/>
       <c r="X27" s="31"/>
       <c r="Y27" s="31"/>
-      <c r="AG27" s="31"/>
+      <c r="Z27" s="31"/>
       <c r="AH27" s="31"/>
       <c r="AI27" s="31"/>
       <c r="AJ27" s="31"/>
@@ -2650,20 +2970,23 @@
       <c r="AN27" s="31"/>
       <c r="AO27" s="31"/>
       <c r="AP27" s="31"/>
-    </row>
-    <row r="28" spans="1:45" ht="16.2" customHeight="1">
-      <c r="A28" s="208"/>
-      <c r="B28" s="209"/>
-      <c r="C28" s="209"/>
-      <c r="D28" s="213"/>
-      <c r="E28" s="196"/>
-      <c r="F28" s="197"/>
-      <c r="G28" s="166"/>
-      <c r="H28" s="196"/>
-      <c r="I28" s="197"/>
-      <c r="J28" s="181"/>
-      <c r="K28" s="182"/>
-      <c r="L28" s="31"/>
+      <c r="AQ27" s="31"/>
+    </row>
+    <row r="28" spans="1:46" ht="16.2" customHeight="1">
+      <c r="A28" s="230"/>
+      <c r="B28" s="231"/>
+      <c r="C28" s="231"/>
+      <c r="D28" s="233"/>
+      <c r="E28" s="213"/>
+      <c r="F28" s="246"/>
+      <c r="G28" s="250"/>
+      <c r="H28" s="213"/>
+      <c r="I28" s="202"/>
+      <c r="J28" s="203"/>
+      <c r="K28" s="202" t="s">
+        <v>61</v>
+      </c>
+      <c r="L28" s="203"/>
       <c r="M28" s="31"/>
       <c r="N28" s="31"/>
       <c r="O28" s="31"/>
@@ -2677,7 +3000,7 @@
       <c r="W28" s="31"/>
       <c r="X28" s="31"/>
       <c r="Y28" s="31"/>
-      <c r="AG28" s="31"/>
+      <c r="Z28" s="31"/>
       <c r="AH28" s="31"/>
       <c r="AI28" s="31"/>
       <c r="AJ28" s="31"/>
@@ -2687,22 +3010,29 @@
       <c r="AN28" s="31"/>
       <c r="AO28" s="31"/>
       <c r="AP28" s="31"/>
-    </row>
-    <row r="29" spans="1:45" ht="16.2" customHeight="1">
-      <c r="A29" s="223" t="s">
-        <v>48</v>
-      </c>
-      <c r="B29" s="224"/>
-      <c r="C29" s="224"/>
-      <c r="D29" s="225"/>
-      <c r="E29" s="194"/>
-      <c r="F29" s="195"/>
-      <c r="G29" s="146"/>
-      <c r="H29" s="194"/>
-      <c r="I29" s="195"/>
-      <c r="J29" s="179"/>
-      <c r="K29" s="180"/>
-      <c r="L29" s="31"/>
+      <c r="AQ28" s="31"/>
+    </row>
+    <row r="29" spans="1:46" ht="16.2" customHeight="1">
+      <c r="A29" s="183" t="s">
+        <v>47</v>
+      </c>
+      <c r="B29" s="171"/>
+      <c r="C29" s="171"/>
+      <c r="D29" s="236" t="s">
+        <v>67</v>
+      </c>
+      <c r="E29" s="168"/>
+      <c r="F29" s="168"/>
+      <c r="G29" s="248"/>
+      <c r="H29" s="168"/>
+      <c r="I29" s="200" t="s">
+        <v>73</v>
+      </c>
+      <c r="J29" s="201"/>
+      <c r="K29" s="200" t="s">
+        <v>62</v>
+      </c>
+      <c r="L29" s="201"/>
       <c r="M29" s="31"/>
       <c r="N29" s="31"/>
       <c r="O29" s="31"/>
@@ -2716,7 +3046,7 @@
       <c r="W29" s="31"/>
       <c r="X29" s="31"/>
       <c r="Y29" s="31"/>
-      <c r="AG29" s="31"/>
+      <c r="Z29" s="31"/>
       <c r="AH29" s="31"/>
       <c r="AI29" s="31"/>
       <c r="AJ29" s="31"/>
@@ -2726,22 +3056,25 @@
       <c r="AN29" s="31"/>
       <c r="AO29" s="31"/>
       <c r="AP29" s="31"/>
-    </row>
-    <row r="30" spans="1:45" ht="16.2" customHeight="1">
-      <c r="A30" s="226" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="227"/>
-      <c r="C30" s="227"/>
-      <c r="D30" s="228"/>
-      <c r="E30" s="196"/>
-      <c r="F30" s="197"/>
-      <c r="G30" s="166"/>
-      <c r="H30" s="196"/>
-      <c r="I30" s="197"/>
-      <c r="J30" s="181"/>
-      <c r="K30" s="182"/>
-      <c r="L30" s="31"/>
+      <c r="AQ29" s="31"/>
+    </row>
+    <row r="30" spans="1:46" ht="16.2" customHeight="1">
+      <c r="A30" s="184" t="s">
+        <v>48</v>
+      </c>
+      <c r="B30" s="172"/>
+      <c r="C30" s="172"/>
+      <c r="D30" s="233"/>
+      <c r="E30" s="169"/>
+      <c r="F30" s="169"/>
+      <c r="G30" s="169"/>
+      <c r="H30" s="169"/>
+      <c r="I30" s="202"/>
+      <c r="J30" s="203"/>
+      <c r="K30" s="202" t="s">
+        <v>63</v>
+      </c>
+      <c r="L30" s="203"/>
       <c r="M30" s="31"/>
       <c r="N30" s="31"/>
       <c r="O30" s="31"/>
@@ -2755,22 +3088,27 @@
       <c r="W30" s="31"/>
       <c r="X30" s="31"/>
       <c r="Y30" s="31"/>
-    </row>
-    <row r="31" spans="1:45" ht="16.2" customHeight="1">
-      <c r="A31" s="229" t="s">
-        <v>50</v>
-      </c>
-      <c r="B31" s="230"/>
-      <c r="C31" s="230"/>
-      <c r="D31" s="231"/>
-      <c r="E31" s="194"/>
-      <c r="F31" s="195"/>
-      <c r="G31" s="146"/>
-      <c r="H31" s="194"/>
-      <c r="I31" s="195"/>
-      <c r="J31" s="179"/>
-      <c r="K31" s="180"/>
-      <c r="L31" s="31"/>
+      <c r="Z30" s="31"/>
+    </row>
+    <row r="31" spans="1:46" ht="16.2" customHeight="1">
+      <c r="A31" s="185" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="173"/>
+      <c r="C31" s="173"/>
+      <c r="D31" s="186"/>
+      <c r="E31" s="168"/>
+      <c r="F31" s="168"/>
+      <c r="G31" s="168"/>
+      <c r="H31" s="168"/>
+      <c r="I31" s="237" t="s">
+        <v>74</v>
+      </c>
+      <c r="J31" s="201"/>
+      <c r="K31" s="200" t="s">
+        <v>64</v>
+      </c>
+      <c r="L31" s="201"/>
       <c r="M31" s="31"/>
       <c r="N31" s="31"/>
       <c r="O31" s="31"/>
@@ -2784,22 +3122,25 @@
       <c r="W31" s="31"/>
       <c r="X31" s="31"/>
       <c r="Y31" s="31"/>
-    </row>
-    <row r="32" spans="1:45" ht="16.2" customHeight="1">
-      <c r="A32" s="232" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" s="233"/>
-      <c r="C32" s="233"/>
-      <c r="D32" s="234"/>
-      <c r="E32" s="196"/>
-      <c r="F32" s="197"/>
-      <c r="G32" s="166"/>
-      <c r="H32" s="196"/>
-      <c r="I32" s="197"/>
-      <c r="J32" s="181"/>
-      <c r="K32" s="182"/>
-      <c r="L32" s="31"/>
+      <c r="Z31" s="31"/>
+    </row>
+    <row r="32" spans="1:46" ht="16.2" customHeight="1">
+      <c r="A32" s="196" t="s">
+        <v>50</v>
+      </c>
+      <c r="B32" s="197"/>
+      <c r="C32" s="197"/>
+      <c r="D32" s="187"/>
+      <c r="E32" s="169"/>
+      <c r="F32" s="169"/>
+      <c r="G32" s="169"/>
+      <c r="H32" s="169"/>
+      <c r="I32" s="238"/>
+      <c r="J32" s="203"/>
+      <c r="K32" s="241" t="s">
+        <v>65</v>
+      </c>
+      <c r="L32" s="242"/>
       <c r="M32" s="31"/>
       <c r="N32" s="31"/>
       <c r="O32" s="31"/>
@@ -2813,22 +3154,27 @@
       <c r="W32" s="31"/>
       <c r="X32" s="31"/>
       <c r="Y32" s="31"/>
-    </row>
-    <row r="33" spans="1:45" ht="16.2" customHeight="1">
-      <c r="A33" s="235" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" s="236"/>
-      <c r="C33" s="236"/>
-      <c r="D33" s="237"/>
-      <c r="E33" s="194"/>
-      <c r="F33" s="195"/>
-      <c r="G33" s="146"/>
-      <c r="H33" s="194"/>
-      <c r="I33" s="195"/>
-      <c r="J33" s="179"/>
-      <c r="K33" s="180"/>
-      <c r="L33" s="31"/>
+      <c r="Z32" s="31"/>
+    </row>
+    <row r="33" spans="1:46" ht="16.2" customHeight="1">
+      <c r="A33" s="188" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="189"/>
+      <c r="C33" s="190"/>
+      <c r="D33" s="191"/>
+      <c r="E33" s="174"/>
+      <c r="F33" s="174"/>
+      <c r="G33" s="174"/>
+      <c r="H33" s="174"/>
+      <c r="I33" s="198" t="s">
+        <v>75</v>
+      </c>
+      <c r="J33" s="240"/>
+      <c r="K33" s="251" t="s">
+        <v>76</v>
+      </c>
+      <c r="L33" s="252"/>
       <c r="M33" s="31"/>
       <c r="N33" s="31"/>
       <c r="O33" s="31"/>
@@ -2844,21 +3190,23 @@
       <c r="Y33" s="31"/>
       <c r="Z33" s="31"/>
     </row>
-    <row r="34" spans="1:45" ht="16.2" customHeight="1">
-      <c r="A34" s="238" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="239"/>
-      <c r="C34" s="239"/>
-      <c r="D34" s="240"/>
-      <c r="E34" s="196"/>
-      <c r="F34" s="197"/>
-      <c r="G34" s="166"/>
-      <c r="H34" s="196"/>
-      <c r="I34" s="197"/>
-      <c r="J34" s="181"/>
-      <c r="K34" s="182"/>
-      <c r="L34" s="31"/>
+    <row r="34" spans="1:46" ht="16.2" customHeight="1">
+      <c r="A34" s="192" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="193"/>
+      <c r="C34" s="194"/>
+      <c r="D34" s="195"/>
+      <c r="E34" s="175"/>
+      <c r="F34" s="175"/>
+      <c r="G34" s="175"/>
+      <c r="H34" s="175"/>
+      <c r="I34" s="199"/>
+      <c r="J34" s="239"/>
+      <c r="K34" s="243" t="s">
+        <v>77</v>
+      </c>
+      <c r="L34" s="244"/>
       <c r="M34" s="31"/>
       <c r="N34" s="31"/>
       <c r="O34" s="31"/>
@@ -2874,18 +3222,18 @@
       <c r="Y34" s="31"/>
       <c r="Z34" s="31"/>
     </row>
-    <row r="35" spans="1:45" ht="16.2" customHeight="1">
+    <row r="35" spans="1:46" ht="16.2" customHeight="1">
       <c r="A35" s="119"/>
       <c r="B35" s="119"/>
       <c r="C35" s="119"/>
       <c r="D35" s="119"/>
       <c r="E35" s="119"/>
       <c r="F35" s="119"/>
-      <c r="G35" s="148"/>
-      <c r="H35" s="120"/>
-      <c r="I35" s="119"/>
-      <c r="K35" s="119"/>
-      <c r="L35" s="31"/>
+      <c r="G35" s="119"/>
+      <c r="H35" s="144"/>
+      <c r="I35" s="120"/>
+      <c r="J35" s="119"/>
+      <c r="L35" s="119"/>
       <c r="M35" s="31"/>
       <c r="N35" s="31"/>
       <c r="O35" s="31"/>
@@ -2900,22 +3248,23 @@
       <c r="X35" s="31"/>
       <c r="Y35" s="31"/>
       <c r="Z35" s="31"/>
-    </row>
-    <row r="36" spans="1:45" ht="16.2" customHeight="1">
+      <c r="AA35" s="31"/>
+    </row>
+    <row r="36" spans="1:46" ht="16.2" customHeight="1">
       <c r="A36" s="115" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B36" s="121"/>
       <c r="C36" s="115"/>
       <c r="D36" s="115"/>
-      <c r="E36" s="115"/>
-      <c r="F36" s="115"/>
-      <c r="G36" s="147"/>
-      <c r="H36" s="115"/>
+      <c r="E36" s="165"/>
+      <c r="F36" s="165"/>
+      <c r="G36" s="165"/>
+      <c r="H36" s="143"/>
       <c r="I36" s="115"/>
       <c r="J36" s="115"/>
       <c r="K36" s="115"/>
-      <c r="L36" s="31"/>
+      <c r="L36" s="115"/>
       <c r="M36" s="31"/>
       <c r="N36" s="31"/>
       <c r="O36" s="31"/>
@@ -2930,22 +3279,23 @@
       <c r="X36" s="31"/>
       <c r="Y36" s="31"/>
       <c r="Z36" s="31"/>
-    </row>
-    <row r="37" spans="1:45" ht="16.2" customHeight="1">
+      <c r="AA36" s="31"/>
+    </row>
+    <row r="37" spans="1:46" ht="16.2" customHeight="1">
       <c r="A37" s="115" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B37" s="115"/>
       <c r="C37" s="115"/>
       <c r="D37" s="115"/>
-      <c r="E37" s="115"/>
-      <c r="F37" s="115"/>
-      <c r="G37" s="147"/>
-      <c r="H37" s="115"/>
+      <c r="E37" s="165"/>
+      <c r="F37" s="165"/>
+      <c r="G37" s="165"/>
+      <c r="H37" s="143"/>
       <c r="I37" s="115"/>
       <c r="J37" s="115"/>
       <c r="K37" s="115"/>
-      <c r="L37" s="31"/>
+      <c r="L37" s="115"/>
       <c r="M37" s="31"/>
       <c r="N37" s="31"/>
       <c r="O37" s="31"/>
@@ -2960,22 +3310,23 @@
       <c r="X37" s="31"/>
       <c r="Y37" s="31"/>
       <c r="Z37" s="31"/>
-    </row>
-    <row r="38" spans="1:45" ht="16.2" customHeight="1">
+      <c r="AA37" s="31"/>
+    </row>
+    <row r="38" spans="1:46" ht="16.2" customHeight="1">
       <c r="A38" s="115" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B38" s="121"/>
       <c r="C38" s="115"/>
       <c r="D38" s="115"/>
-      <c r="E38" s="115"/>
-      <c r="F38" s="115"/>
-      <c r="G38" s="147"/>
-      <c r="H38" s="115"/>
+      <c r="E38" s="165"/>
+      <c r="F38" s="165"/>
+      <c r="G38" s="165"/>
+      <c r="H38" s="143"/>
       <c r="I38" s="115"/>
       <c r="J38" s="115"/>
       <c r="K38" s="115"/>
-      <c r="L38" s="31"/>
+      <c r="L38" s="115"/>
       <c r="M38" s="31"/>
       <c r="N38" s="31"/>
       <c r="O38" s="31"/>
@@ -2990,22 +3341,23 @@
       <c r="X38" s="31"/>
       <c r="Y38" s="31"/>
       <c r="Z38" s="31"/>
-    </row>
-    <row r="39" spans="1:45" ht="16.2" customHeight="1">
+      <c r="AA38" s="31"/>
+    </row>
+    <row r="39" spans="1:46" ht="16.2" customHeight="1">
       <c r="A39" s="122" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B39" s="115"/>
       <c r="C39" s="115"/>
       <c r="D39" s="115"/>
-      <c r="E39" s="115"/>
-      <c r="F39" s="115"/>
-      <c r="G39" s="147"/>
-      <c r="H39" s="115"/>
-      <c r="I39" s="22"/>
+      <c r="E39" s="165"/>
+      <c r="F39" s="165"/>
+      <c r="G39" s="165"/>
+      <c r="H39" s="143"/>
+      <c r="I39" s="115"/>
       <c r="J39" s="22"/>
       <c r="K39" s="22"/>
-      <c r="L39" s="31"/>
+      <c r="L39" s="22"/>
       <c r="M39" s="31"/>
       <c r="N39" s="31"/>
       <c r="O39" s="31"/>
@@ -3020,22 +3372,23 @@
       <c r="X39" s="31"/>
       <c r="Y39" s="31"/>
       <c r="Z39" s="31"/>
-    </row>
-    <row r="40" spans="1:45" ht="16.2" customHeight="1">
+      <c r="AA39" s="31"/>
+    </row>
+    <row r="40" spans="1:46" ht="16.2" customHeight="1">
       <c r="A40" s="115" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B40" s="115"/>
       <c r="C40" s="115"/>
       <c r="D40" s="115"/>
-      <c r="E40" s="115"/>
-      <c r="F40" s="115"/>
-      <c r="G40" s="147"/>
-      <c r="H40" s="115"/>
+      <c r="E40" s="165"/>
+      <c r="F40" s="165"/>
+      <c r="G40" s="165"/>
+      <c r="H40" s="143"/>
       <c r="I40" s="115"/>
       <c r="J40" s="115"/>
       <c r="K40" s="115"/>
-      <c r="L40" s="31"/>
+      <c r="L40" s="115"/>
       <c r="M40" s="31"/>
       <c r="N40" s="31"/>
       <c r="O40" s="31"/>
@@ -3050,20 +3403,21 @@
       <c r="X40" s="31"/>
       <c r="Y40" s="31"/>
       <c r="Z40" s="31"/>
-    </row>
-    <row r="41" spans="1:45" ht="16.2" customHeight="1">
+      <c r="AA40" s="31"/>
+    </row>
+    <row r="41" spans="1:46" ht="16.2" customHeight="1">
       <c r="A41" s="119"/>
       <c r="B41" s="119"/>
       <c r="C41" s="119"/>
       <c r="D41" s="119"/>
       <c r="E41" s="119"/>
       <c r="F41" s="119"/>
-      <c r="G41" s="148"/>
-      <c r="H41" s="120"/>
+      <c r="G41" s="119"/>
+      <c r="H41" s="144"/>
       <c r="I41" s="120"/>
-      <c r="J41" s="119"/>
+      <c r="J41" s="120"/>
       <c r="K41" s="119"/>
-      <c r="L41" s="31"/>
+      <c r="L41" s="119"/>
       <c r="M41" s="31"/>
       <c r="N41" s="31"/>
       <c r="O41" s="31"/>
@@ -3078,48 +3432,49 @@
       <c r="X41" s="31"/>
       <c r="Y41" s="31"/>
       <c r="Z41" s="31"/>
-    </row>
-    <row r="42" spans="1:45" ht="15.6" customHeight="1">
+      <c r="AA41" s="31"/>
+    </row>
+    <row r="42" spans="1:46" ht="15.6" customHeight="1">
       <c r="A42" s="54"/>
       <c r="B42" s="57"/>
       <c r="C42" s="54"/>
       <c r="D42" s="54"/>
       <c r="E42" s="55"/>
       <c r="F42" s="55"/>
-      <c r="G42" s="153"/>
-      <c r="H42" s="55"/>
+      <c r="G42" s="55"/>
+      <c r="H42" s="149"/>
       <c r="I42" s="55"/>
-      <c r="J42" s="51"/>
+      <c r="J42" s="55"/>
       <c r="K42" s="51"/>
-      <c r="L42" s="134"/>
+      <c r="L42" s="51"/>
       <c r="M42" s="134"/>
       <c r="N42" s="134"/>
       <c r="O42" s="134"/>
       <c r="P42" s="134"/>
-      <c r="Q42" s="135"/>
-      <c r="R42" s="12"/>
-      <c r="S42" s="49"/>
-      <c r="T42" s="58"/>
-      <c r="U42" s="31"/>
+      <c r="Q42" s="134"/>
+      <c r="R42" s="135"/>
+      <c r="S42" s="12"/>
+      <c r="T42" s="49"/>
+      <c r="U42" s="58"/>
       <c r="V42" s="31"/>
-      <c r="W42" s="59"/>
-      <c r="X42" s="43"/>
-      <c r="Y42" s="38"/>
+      <c r="W42" s="31"/>
+      <c r="X42" s="59"/>
+      <c r="Y42" s="43"/>
       <c r="Z42" s="38"/>
       <c r="AA42" s="38"/>
       <c r="AB42" s="38"/>
-      <c r="AC42" s="38" t="s">
+      <c r="AC42" s="38"/>
+      <c r="AD42" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="AD42" s="42"/>
-      <c r="AE42" s="41"/>
-      <c r="AF42" s="38"/>
-      <c r="AG42" s="46"/>
-      <c r="AH42" s="38"/>
-      <c r="AI42" s="38" t="s">
+      <c r="AE42" s="42"/>
+      <c r="AF42" s="41"/>
+      <c r="AG42" s="38"/>
+      <c r="AH42" s="46"/>
+      <c r="AI42" s="38"/>
+      <c r="AJ42" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="AJ42" s="31"/>
       <c r="AK42" s="31"/>
       <c r="AL42" s="31"/>
       <c r="AM42" s="31"/>
@@ -3129,51 +3484,52 @@
       <c r="AQ42" s="31"/>
       <c r="AR42" s="31"/>
       <c r="AS42" s="31"/>
-    </row>
-    <row r="43" spans="1:45" ht="15.6" customHeight="1">
-      <c r="A43" s="205">
-        <f>T16</f>
+      <c r="AT42" s="31"/>
+    </row>
+    <row r="43" spans="1:46" ht="15.6" customHeight="1">
+      <c r="A43" s="211">
+        <f>U16</f>
         <v>0</v>
       </c>
-      <c r="B43" s="205"/>
-      <c r="C43" s="205"/>
+      <c r="B43" s="211"/>
+      <c r="C43" s="211"/>
       <c r="D43" s="18"/>
       <c r="E43" s="18"/>
       <c r="F43" s="18"/>
-      <c r="G43" s="147"/>
-      <c r="H43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="143"/>
       <c r="I43" s="18"/>
-      <c r="J43" s="142"/>
-      <c r="K43" s="141"/>
-      <c r="L43" s="141"/>
-      <c r="M43" s="141"/>
-      <c r="N43" s="141"/>
-      <c r="O43" s="141"/>
-      <c r="P43" s="141"/>
-      <c r="Q43" s="141"/>
-      <c r="R43" s="141"/>
-      <c r="S43" s="49"/>
-      <c r="T43" s="58"/>
-      <c r="U43" s="44"/>
-      <c r="V43" s="31"/>
-      <c r="W43" s="43"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="139"/>
+      <c r="L43" s="138"/>
+      <c r="M43" s="138"/>
+      <c r="N43" s="138"/>
+      <c r="O43" s="138"/>
+      <c r="P43" s="138"/>
+      <c r="Q43" s="138"/>
+      <c r="R43" s="138"/>
+      <c r="S43" s="138"/>
+      <c r="T43" s="49"/>
+      <c r="U43" s="58"/>
+      <c r="V43" s="44"/>
+      <c r="W43" s="31"/>
       <c r="X43" s="43"/>
       <c r="Y43" s="43"/>
-      <c r="Z43" s="38"/>
+      <c r="Z43" s="43"/>
       <c r="AA43" s="38"/>
       <c r="AB43" s="38"/>
-      <c r="AC43" s="38" t="s">
+      <c r="AC43" s="38"/>
+      <c r="AD43" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="AD43" s="42"/>
-      <c r="AE43" s="46"/>
-      <c r="AF43" s="43"/>
+      <c r="AE43" s="42"/>
+      <c r="AF43" s="46"/>
       <c r="AG43" s="43"/>
-      <c r="AH43" s="46"/>
-      <c r="AI43" s="46" t="s">
+      <c r="AH43" s="43"/>
+      <c r="AI43" s="46"/>
+      <c r="AJ43" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="AJ43" s="31"/>
       <c r="AK43" s="31"/>
       <c r="AL43" s="31"/>
       <c r="AM43" s="31"/>
@@ -3183,52 +3539,53 @@
       <c r="AQ43" s="31"/>
       <c r="AR43" s="31"/>
       <c r="AS43" s="31"/>
-    </row>
-    <row r="44" spans="1:45" ht="15.6" customHeight="1">
-      <c r="A44" s="198" t="s">
-        <v>30</v>
-      </c>
-      <c r="B44" s="198"/>
+      <c r="AT43" s="31"/>
+    </row>
+    <row r="44" spans="1:46" ht="15.6" customHeight="1">
+      <c r="A44" s="204" t="s">
+        <v>29</v>
+      </c>
+      <c r="B44" s="204"/>
       <c r="C44" s="123"/>
       <c r="D44" s="123"/>
-      <c r="E44" s="123"/>
+      <c r="E44" s="18"/>
       <c r="F44" s="18"/>
-      <c r="G44" s="147"/>
-      <c r="H44" s="143" t="s">
-        <v>31</v>
-      </c>
-      <c r="I44" s="144"/>
-      <c r="J44" s="145"/>
-      <c r="K44" s="145"/>
-      <c r="L44" s="125"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="143"/>
+      <c r="I44" s="140" t="s">
+        <v>30</v>
+      </c>
+      <c r="J44" s="141"/>
+      <c r="K44" s="142"/>
+      <c r="L44" s="142"/>
       <c r="M44" s="125"/>
       <c r="N44" s="125"/>
       <c r="O44" s="125"/>
       <c r="P44" s="125"/>
       <c r="Q44" s="125"/>
       <c r="R44" s="125"/>
-      <c r="S44" s="49"/>
-      <c r="T44" s="58"/>
-      <c r="U44" s="44"/>
-      <c r="V44" s="31"/>
-      <c r="W44" s="62"/>
-      <c r="X44" s="53"/>
-      <c r="Y44" s="38"/>
+      <c r="S44" s="125"/>
+      <c r="T44" s="49"/>
+      <c r="U44" s="58"/>
+      <c r="V44" s="44"/>
+      <c r="W44" s="31"/>
+      <c r="X44" s="62"/>
+      <c r="Y44" s="53"/>
       <c r="Z44" s="38"/>
       <c r="AA44" s="38"/>
       <c r="AB44" s="38"/>
-      <c r="AC44" s="38" t="s">
+      <c r="AC44" s="38"/>
+      <c r="AD44" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="AD44" s="42"/>
-      <c r="AE44" s="43"/>
+      <c r="AE44" s="42"/>
       <c r="AF44" s="43"/>
       <c r="AG44" s="43"/>
       <c r="AH44" s="43"/>
-      <c r="AI44" s="43" t="s">
+      <c r="AI44" s="43"/>
+      <c r="AJ44" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="AJ44" s="31"/>
       <c r="AK44" s="31"/>
       <c r="AL44" s="31"/>
       <c r="AM44" s="31"/>
@@ -3238,23 +3595,24 @@
       <c r="AQ44" s="31"/>
       <c r="AR44" s="31"/>
       <c r="AS44" s="31"/>
-    </row>
-    <row r="45" spans="1:45" ht="15.9" customHeight="1">
+      <c r="AT44" s="31"/>
+    </row>
+    <row r="45" spans="1:46" ht="15.9" customHeight="1">
       <c r="A45" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45" s="124" t="s">
         <v>32</v>
-      </c>
-      <c r="B45" s="124" t="s">
-        <v>33</v>
       </c>
       <c r="C45" s="123"/>
       <c r="D45" s="123"/>
-      <c r="E45" s="123"/>
+      <c r="E45" s="18"/>
       <c r="F45" s="18"/>
-      <c r="G45" s="147"/>
-      <c r="H45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="143"/>
       <c r="I45" s="18"/>
       <c r="J45" s="18"/>
-      <c r="K45" s="125"/>
+      <c r="K45" s="18"/>
       <c r="L45" s="125"/>
       <c r="M45" s="125"/>
       <c r="N45" s="125"/>
@@ -3262,28 +3620,28 @@
       <c r="P45" s="125"/>
       <c r="Q45" s="125"/>
       <c r="R45" s="125"/>
-      <c r="S45" s="49"/>
-      <c r="T45" s="58"/>
-      <c r="U45" s="61"/>
-      <c r="V45" s="31"/>
-      <c r="W45" s="65"/>
-      <c r="X45" s="57"/>
-      <c r="Y45" s="38"/>
+      <c r="S45" s="125"/>
+      <c r="T45" s="49"/>
+      <c r="U45" s="58"/>
+      <c r="V45" s="61"/>
+      <c r="W45" s="31"/>
+      <c r="X45" s="65"/>
+      <c r="Y45" s="57"/>
       <c r="Z45" s="38"/>
       <c r="AA45" s="38"/>
       <c r="AB45" s="38"/>
-      <c r="AC45" s="38" t="s">
+      <c r="AC45" s="38"/>
+      <c r="AD45" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="AD45" s="42"/>
-      <c r="AE45" s="46"/>
-      <c r="AF45" s="43"/>
-      <c r="AG45" s="46"/>
+      <c r="AE45" s="42"/>
+      <c r="AF45" s="46"/>
+      <c r="AG45" s="43"/>
       <c r="AH45" s="46"/>
       <c r="AI45" s="46"/>
-      <c r="AJ45" s="45"/>
-      <c r="AK45" s="47"/>
-      <c r="AL45" s="31"/>
+      <c r="AJ45" s="46"/>
+      <c r="AK45" s="45"/>
+      <c r="AL45" s="47"/>
       <c r="AM45" s="31"/>
       <c r="AN45" s="31"/>
       <c r="AO45" s="31"/>
@@ -3291,21 +3649,22 @@
       <c r="AQ45" s="31"/>
       <c r="AR45" s="31"/>
       <c r="AS45" s="31"/>
-    </row>
-    <row r="46" spans="1:45" ht="15.9" customHeight="1">
+      <c r="AT45" s="31"/>
+    </row>
+    <row r="46" spans="1:46" ht="15.9" customHeight="1">
       <c r="A46" s="125"/>
       <c r="B46" s="124" t="s">
         <v>14</v>
       </c>
       <c r="C46" s="123"/>
       <c r="D46" s="123"/>
-      <c r="E46" s="123"/>
+      <c r="E46" s="18"/>
       <c r="F46" s="18"/>
-      <c r="G46" s="147"/>
-      <c r="H46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="143"/>
       <c r="I46" s="18"/>
       <c r="J46" s="18"/>
-      <c r="K46" s="125"/>
+      <c r="K46" s="18"/>
       <c r="L46" s="125"/>
       <c r="M46" s="125"/>
       <c r="N46" s="125"/>
@@ -3313,9 +3672,9 @@
       <c r="P46" s="125"/>
       <c r="Q46" s="125"/>
       <c r="R46" s="125"/>
-      <c r="S46" s="49"/>
-      <c r="T46" s="58"/>
-      <c r="U46" s="31"/>
+      <c r="S46" s="125"/>
+      <c r="T46" s="49"/>
+      <c r="U46" s="58"/>
       <c r="V46" s="31"/>
       <c r="W46" s="31"/>
       <c r="X46" s="31"/>
@@ -3330,9 +3689,9 @@
       <c r="AG46" s="31"/>
       <c r="AH46" s="31"/>
       <c r="AI46" s="31"/>
-      <c r="AJ46" s="47"/>
-      <c r="AK46" s="61"/>
-      <c r="AL46" s="31"/>
+      <c r="AJ46" s="31"/>
+      <c r="AK46" s="47"/>
+      <c r="AL46" s="61"/>
       <c r="AM46" s="31"/>
       <c r="AN46" s="31"/>
       <c r="AO46" s="31"/>
@@ -3340,32 +3699,33 @@
       <c r="AQ46" s="31"/>
       <c r="AR46" s="31"/>
       <c r="AS46" s="31"/>
-    </row>
-    <row r="47" spans="1:45" ht="15.9" customHeight="1">
+      <c r="AT46" s="31"/>
+    </row>
+    <row r="47" spans="1:46" ht="15.9" customHeight="1">
       <c r="A47" s="31"/>
       <c r="B47" s="126" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C47" s="38"/>
       <c r="D47" s="38"/>
-      <c r="E47" s="105"/>
+      <c r="E47" s="38"/>
       <c r="F47" s="38"/>
-      <c r="G47" s="154"/>
-      <c r="H47" s="127"/>
-      <c r="I47" s="105"/>
-      <c r="J47" s="128"/>
-      <c r="K47" s="105"/>
-      <c r="L47" s="38"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="150"/>
+      <c r="I47" s="127"/>
+      <c r="J47" s="105"/>
+      <c r="K47" s="128"/>
+      <c r="L47" s="105"/>
       <c r="M47" s="38"/>
       <c r="N47" s="38"/>
       <c r="O47" s="38"/>
       <c r="P47" s="38"/>
-      <c r="Q47" s="105"/>
-      <c r="R47" s="129"/>
-      <c r="S47" s="31"/>
+      <c r="Q47" s="38"/>
+      <c r="R47" s="105"/>
+      <c r="S47" s="129"/>
       <c r="T47" s="31"/>
-      <c r="U47" s="44"/>
-      <c r="V47" s="31"/>
+      <c r="U47" s="31"/>
+      <c r="V47" s="44"/>
       <c r="W47" s="31"/>
       <c r="X47" s="31"/>
       <c r="Y47" s="31"/>
@@ -3379,9 +3739,9 @@
       <c r="AG47" s="31"/>
       <c r="AH47" s="31"/>
       <c r="AI47" s="31"/>
-      <c r="AJ47" s="61"/>
+      <c r="AJ47" s="31"/>
       <c r="AK47" s="61"/>
-      <c r="AL47" s="31"/>
+      <c r="AL47" s="61"/>
       <c r="AM47" s="31"/>
       <c r="AN47" s="31"/>
       <c r="AO47" s="31"/>
@@ -3389,32 +3749,33 @@
       <c r="AQ47" s="31"/>
       <c r="AR47" s="31"/>
       <c r="AS47" s="31"/>
-    </row>
-    <row r="48" spans="1:45" ht="15.9" customHeight="1">
+      <c r="AT47" s="31"/>
+    </row>
+    <row r="48" spans="1:46" ht="15.9" customHeight="1">
       <c r="A48" s="46"/>
       <c r="B48" s="130" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C48" s="38"/>
       <c r="D48" s="105"/>
       <c r="E48" s="105"/>
       <c r="F48" s="105"/>
-      <c r="G48" s="155"/>
-      <c r="H48" s="105"/>
-      <c r="I48" s="131"/>
-      <c r="J48" s="129"/>
+      <c r="G48" s="105"/>
+      <c r="H48" s="151"/>
+      <c r="I48" s="105"/>
+      <c r="J48" s="131"/>
       <c r="K48" s="129"/>
-      <c r="L48" s="38"/>
+      <c r="L48" s="129"/>
       <c r="M48" s="38"/>
       <c r="N48" s="38"/>
       <c r="O48" s="38"/>
       <c r="P48" s="38"/>
-      <c r="Q48" s="105"/>
-      <c r="R48" s="132"/>
-      <c r="S48" s="31"/>
+      <c r="Q48" s="38"/>
+      <c r="R48" s="105"/>
+      <c r="S48" s="132"/>
       <c r="T48" s="31"/>
-      <c r="U48" s="44"/>
-      <c r="V48" s="31"/>
+      <c r="U48" s="31"/>
+      <c r="V48" s="44"/>
       <c r="W48" s="31"/>
       <c r="X48" s="31"/>
       <c r="Y48" s="31"/>
@@ -3428,9 +3789,9 @@
       <c r="AG48" s="31"/>
       <c r="AH48" s="31"/>
       <c r="AI48" s="31"/>
-      <c r="AJ48" s="61"/>
-      <c r="AK48" s="41"/>
-      <c r="AL48" s="31"/>
+      <c r="AJ48" s="31"/>
+      <c r="AK48" s="61"/>
+      <c r="AL48" s="41"/>
       <c r="AM48" s="31"/>
       <c r="AN48" s="31"/>
       <c r="AO48" s="31"/>
@@ -3438,32 +3799,33 @@
       <c r="AQ48" s="31"/>
       <c r="AR48" s="31"/>
       <c r="AS48" s="31"/>
-    </row>
-    <row r="49" spans="1:45" ht="15.9" customHeight="1">
+      <c r="AT48" s="31"/>
+    </row>
+    <row r="49" spans="1:46" ht="15.9" customHeight="1">
       <c r="A49" s="43"/>
       <c r="B49" s="126" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C49" s="127"/>
       <c r="D49" s="105"/>
-      <c r="E49" s="105"/>
+      <c r="E49" s="128"/>
       <c r="F49" s="128"/>
-      <c r="G49" s="156"/>
-      <c r="H49" s="105"/>
+      <c r="G49" s="128"/>
+      <c r="H49" s="152"/>
       <c r="I49" s="105"/>
       <c r="J49" s="105"/>
       <c r="K49" s="105"/>
-      <c r="L49" s="38"/>
+      <c r="L49" s="105"/>
       <c r="M49" s="38"/>
       <c r="N49" s="38"/>
       <c r="O49" s="38"/>
       <c r="P49" s="38"/>
-      <c r="Q49" s="105"/>
-      <c r="R49" s="132"/>
-      <c r="S49" s="31"/>
+      <c r="Q49" s="38"/>
+      <c r="R49" s="105"/>
+      <c r="S49" s="132"/>
       <c r="T49" s="31"/>
-      <c r="U49" s="61"/>
-      <c r="V49" s="31"/>
+      <c r="U49" s="31"/>
+      <c r="V49" s="61"/>
       <c r="W49" s="31"/>
       <c r="X49" s="31"/>
       <c r="Y49" s="31"/>
@@ -3487,32 +3849,33 @@
       <c r="AQ49" s="31"/>
       <c r="AR49" s="31"/>
       <c r="AS49" s="31"/>
-    </row>
-    <row r="50" spans="1:45" ht="15.9" customHeight="1">
+      <c r="AT49" s="31"/>
+    </row>
+    <row r="50" spans="1:46" ht="15.9" customHeight="1">
       <c r="A50" s="133" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B50" s="105"/>
       <c r="C50" s="128"/>
       <c r="D50" s="128"/>
       <c r="E50" s="128"/>
       <c r="F50" s="128"/>
-      <c r="G50" s="156"/>
-      <c r="H50" s="106"/>
-      <c r="I50" s="128"/>
-      <c r="J50" s="105"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="12"/>
+      <c r="G50" s="128"/>
+      <c r="H50" s="152"/>
+      <c r="I50" s="106"/>
+      <c r="J50" s="128"/>
+      <c r="K50" s="105"/>
+      <c r="L50" s="31"/>
       <c r="M50" s="12"/>
       <c r="N50" s="12"/>
       <c r="O50" s="12"/>
       <c r="P50" s="12"/>
       <c r="Q50" s="12"/>
       <c r="R50" s="12"/>
-      <c r="S50" s="63"/>
-      <c r="T50" s="52"/>
-      <c r="U50" s="48"/>
-      <c r="V50" s="31"/>
+      <c r="S50" s="12"/>
+      <c r="T50" s="63"/>
+      <c r="U50" s="52"/>
+      <c r="V50" s="48"/>
       <c r="W50" s="31"/>
       <c r="X50" s="31"/>
       <c r="Y50" s="31"/>
@@ -3536,30 +3899,31 @@
       <c r="AQ50" s="31"/>
       <c r="AR50" s="31"/>
       <c r="AS50" s="31"/>
-    </row>
-    <row r="51" spans="1:45" ht="15.9" customHeight="1">
+      <c r="AT50" s="31"/>
+    </row>
+    <row r="51" spans="1:46" ht="15.9" customHeight="1">
       <c r="A51" s="43"/>
       <c r="B51" s="43"/>
       <c r="C51" s="43"/>
       <c r="D51" s="43"/>
       <c r="E51" s="43"/>
       <c r="F51" s="43"/>
-      <c r="G51" s="157"/>
-      <c r="H51" s="43"/>
+      <c r="G51" s="43"/>
+      <c r="H51" s="153"/>
       <c r="I51" s="43"/>
       <c r="J51" s="43"/>
       <c r="K51" s="43"/>
-      <c r="L51" s="31"/>
+      <c r="L51" s="43"/>
       <c r="M51" s="31"/>
       <c r="N51" s="31"/>
       <c r="O51" s="31"/>
       <c r="P51" s="31"/>
       <c r="Q51" s="31"/>
       <c r="R51" s="31"/>
-      <c r="S51" s="52"/>
-      <c r="T51" s="56"/>
-      <c r="U51" s="44"/>
-      <c r="V51" s="31"/>
+      <c r="S51" s="31"/>
+      <c r="T51" s="52"/>
+      <c r="U51" s="56"/>
+      <c r="V51" s="44"/>
       <c r="W51" s="31"/>
       <c r="X51" s="31"/>
       <c r="Y51" s="31"/>
@@ -3583,30 +3947,31 @@
       <c r="AQ51" s="31"/>
       <c r="AR51" s="31"/>
       <c r="AS51" s="31"/>
-    </row>
-    <row r="52" spans="1:45" ht="15.9" customHeight="1">
+      <c r="AT51" s="31"/>
+    </row>
+    <row r="52" spans="1:46" ht="15.9" customHeight="1">
       <c r="A52" s="60"/>
       <c r="B52" s="43"/>
       <c r="C52" s="43"/>
       <c r="D52" s="67"/>
-      <c r="E52" s="55"/>
+      <c r="E52" s="31"/>
       <c r="F52" s="31"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="68"/>
-      <c r="J52" s="64"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="31"/>
+      <c r="J52" s="68"/>
       <c r="K52" s="64"/>
-      <c r="L52" s="31"/>
+      <c r="L52" s="64"/>
       <c r="M52" s="31"/>
       <c r="N52" s="31"/>
       <c r="O52" s="31"/>
       <c r="P52" s="31"/>
       <c r="Q52" s="31"/>
       <c r="R52" s="31"/>
-      <c r="S52" s="49"/>
-      <c r="T52" s="69"/>
-      <c r="U52" s="44"/>
-      <c r="V52" s="31"/>
+      <c r="S52" s="31"/>
+      <c r="T52" s="49"/>
+      <c r="U52" s="69"/>
+      <c r="V52" s="44"/>
       <c r="W52" s="31"/>
       <c r="X52" s="31"/>
       <c r="Y52" s="31"/>
@@ -3630,16 +3995,17 @@
       <c r="AQ52" s="31"/>
       <c r="AR52" s="31"/>
       <c r="AS52" s="31"/>
-    </row>
-    <row r="53" spans="1:45" ht="14.1" customHeight="1">
+      <c r="AT52" s="31"/>
+    </row>
+    <row r="53" spans="1:46" ht="14.1" customHeight="1">
       <c r="A53" s="39"/>
       <c r="B53" s="43"/>
       <c r="C53" s="64"/>
       <c r="D53" s="64"/>
-      <c r="E53" s="64"/>
+      <c r="E53" s="55"/>
       <c r="F53" s="55"/>
-      <c r="G53" s="153"/>
-      <c r="H53" s="31"/>
+      <c r="G53" s="55"/>
+      <c r="H53" s="149"/>
       <c r="I53" s="31"/>
       <c r="J53" s="31"/>
       <c r="K53" s="31"/>
@@ -3652,8 +4018,8 @@
       <c r="R53" s="31"/>
       <c r="S53" s="31"/>
       <c r="T53" s="31"/>
-      <c r="U53" s="61"/>
-      <c r="V53" s="31"/>
+      <c r="U53" s="31"/>
+      <c r="V53" s="61"/>
       <c r="W53" s="31"/>
       <c r="X53" s="31"/>
       <c r="Y53" s="31"/>
@@ -3677,16 +4043,17 @@
       <c r="AQ53" s="31"/>
       <c r="AR53" s="31"/>
       <c r="AS53" s="31"/>
-    </row>
-    <row r="54" spans="1:45" ht="15.6">
+      <c r="AT53" s="31"/>
+    </row>
+    <row r="54" spans="1:46" ht="15.6">
       <c r="A54" s="39"/>
       <c r="B54" s="53"/>
       <c r="C54" s="64"/>
       <c r="D54" s="64"/>
-      <c r="E54" s="64"/>
+      <c r="E54" s="31"/>
       <c r="F54" s="31"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="37"/>
       <c r="I54" s="31"/>
       <c r="J54" s="31"/>
       <c r="K54" s="31"/>
@@ -3697,10 +4064,10 @@
       <c r="P54" s="31"/>
       <c r="Q54" s="31"/>
       <c r="R54" s="31"/>
-      <c r="S54" s="52"/>
+      <c r="S54" s="31"/>
       <c r="T54" s="52"/>
-      <c r="U54" s="48"/>
-      <c r="V54" s="31"/>
+      <c r="U54" s="52"/>
+      <c r="V54" s="48"/>
       <c r="W54" s="31"/>
       <c r="X54" s="31"/>
       <c r="Y54" s="31"/>
@@ -3724,29 +4091,30 @@
       <c r="AQ54" s="31"/>
       <c r="AR54" s="31"/>
       <c r="AS54" s="31"/>
-    </row>
-    <row r="55" spans="1:45" ht="15.6">
+      <c r="AT54" s="31"/>
+    </row>
+    <row r="55" spans="1:46" ht="15.6">
       <c r="A55" s="70"/>
       <c r="B55" s="31"/>
       <c r="C55" s="52"/>
       <c r="D55" s="31"/>
       <c r="E55" s="31"/>
       <c r="F55" s="31"/>
-      <c r="G55" s="37"/>
-      <c r="H55" s="31"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="37"/>
       <c r="I55" s="31"/>
       <c r="J55" s="31"/>
-      <c r="K55" s="52"/>
-      <c r="L55" s="31"/>
+      <c r="K55" s="31"/>
+      <c r="L55" s="52"/>
       <c r="M55" s="31"/>
       <c r="N55" s="31"/>
       <c r="O55" s="31"/>
       <c r="P55" s="31"/>
       <c r="Q55" s="31"/>
-      <c r="R55" s="52"/>
-      <c r="S55" s="49"/>
-      <c r="T55" s="48"/>
-      <c r="U55" s="31"/>
+      <c r="R55" s="31"/>
+      <c r="S55" s="52"/>
+      <c r="T55" s="49"/>
+      <c r="U55" s="48"/>
       <c r="V55" s="31"/>
       <c r="W55" s="31"/>
       <c r="X55" s="31"/>
@@ -3770,28 +4138,29 @@
       <c r="AP55" s="31"/>
       <c r="AQ55" s="31"/>
       <c r="AR55" s="31"/>
-    </row>
-    <row r="56" spans="1:45" ht="18.899999999999999" customHeight="1">
+      <c r="AS55" s="31"/>
+    </row>
+    <row r="56" spans="1:46" ht="18.899999999999999" customHeight="1">
       <c r="A56" s="63"/>
       <c r="B56" s="52"/>
       <c r="C56" s="71"/>
       <c r="D56" s="72"/>
-      <c r="E56" s="73"/>
+      <c r="E56" s="72"/>
       <c r="F56" s="72"/>
-      <c r="G56" s="158"/>
-      <c r="H56" s="74"/>
-      <c r="I56" s="31"/>
+      <c r="G56" s="72"/>
+      <c r="H56" s="154"/>
+      <c r="I56" s="74"/>
       <c r="J56" s="31"/>
-      <c r="K56" s="75"/>
-      <c r="L56" s="31"/>
+      <c r="K56" s="31"/>
+      <c r="L56" s="75"/>
       <c r="M56" s="31"/>
       <c r="N56" s="31"/>
       <c r="O56" s="31"/>
       <c r="P56" s="31"/>
       <c r="Q56" s="31"/>
-      <c r="R56" s="49"/>
-      <c r="S56" s="76"/>
-      <c r="T56" s="31"/>
+      <c r="R56" s="31"/>
+      <c r="S56" s="49"/>
+      <c r="T56" s="76"/>
       <c r="U56" s="31"/>
       <c r="V56" s="31"/>
       <c r="W56" s="31"/>
@@ -3816,31 +4185,32 @@
       <c r="AP56" s="31"/>
       <c r="AQ56" s="31"/>
       <c r="AR56" s="31"/>
-    </row>
-    <row r="57" spans="1:45" ht="15.6">
+      <c r="AS56" s="31"/>
+    </row>
+    <row r="57" spans="1:46" ht="15.6">
       <c r="A57" s="77"/>
       <c r="B57" s="78"/>
       <c r="C57" s="77"/>
       <c r="D57" s="78"/>
       <c r="E57" s="31"/>
       <c r="F57" s="31"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="31"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="37"/>
       <c r="I57" s="31"/>
       <c r="J57" s="31"/>
-      <c r="K57" s="52"/>
-      <c r="L57" s="31"/>
+      <c r="K57" s="31"/>
+      <c r="L57" s="52"/>
       <c r="M57" s="31"/>
       <c r="N57" s="31"/>
       <c r="O57" s="31"/>
       <c r="P57" s="31"/>
       <c r="Q57" s="31"/>
-      <c r="R57" s="49"/>
-      <c r="S57" s="58"/>
-      <c r="T57" s="71"/>
-      <c r="U57" s="72"/>
-      <c r="V57" s="73"/>
-      <c r="W57" s="31"/>
+      <c r="R57" s="31"/>
+      <c r="S57" s="49"/>
+      <c r="T57" s="58"/>
+      <c r="U57" s="71"/>
+      <c r="V57" s="72"/>
+      <c r="W57" s="73"/>
       <c r="X57" s="31"/>
       <c r="Y57" s="31"/>
       <c r="Z57" s="31"/>
@@ -3862,16 +4232,17 @@
       <c r="AP57" s="31"/>
       <c r="AQ57" s="31"/>
       <c r="AR57" s="31"/>
-    </row>
-    <row r="58" spans="1:45" ht="15.6">
+      <c r="AS57" s="31"/>
+    </row>
+    <row r="58" spans="1:46" ht="15.6">
       <c r="A58" s="59"/>
       <c r="B58" s="43"/>
       <c r="C58" s="70"/>
       <c r="D58" s="68"/>
       <c r="E58" s="31"/>
       <c r="F58" s="31"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="37"/>
       <c r="I58" s="31"/>
       <c r="J58" s="31"/>
       <c r="K58" s="31"/>
@@ -3882,9 +4253,9 @@
       <c r="P58" s="31"/>
       <c r="Q58" s="31"/>
       <c r="R58" s="31"/>
-      <c r="S58" s="52"/>
-      <c r="T58" s="43"/>
-      <c r="U58" s="31"/>
+      <c r="S58" s="31"/>
+      <c r="T58" s="52"/>
+      <c r="U58" s="43"/>
       <c r="V58" s="31"/>
       <c r="W58" s="31"/>
       <c r="X58" s="31"/>
@@ -3909,16 +4280,17 @@
       <c r="AQ58" s="31"/>
       <c r="AR58" s="31"/>
       <c r="AS58" s="31"/>
-    </row>
-    <row r="59" spans="1:45" ht="15.6">
+      <c r="AT58" s="31"/>
+    </row>
+    <row r="59" spans="1:46" ht="15.6">
       <c r="A59" s="38"/>
       <c r="B59" s="38"/>
       <c r="C59" s="70"/>
       <c r="D59" s="68"/>
       <c r="E59" s="31"/>
       <c r="F59" s="31"/>
-      <c r="G59" s="37"/>
-      <c r="H59" s="31"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="37"/>
       <c r="I59" s="31"/>
       <c r="J59" s="31"/>
       <c r="K59" s="31"/>
@@ -3929,10 +4301,10 @@
       <c r="P59" s="31"/>
       <c r="Q59" s="31"/>
       <c r="R59" s="31"/>
-      <c r="S59" s="52"/>
-      <c r="T59" s="56"/>
-      <c r="U59" s="59"/>
-      <c r="V59" s="31"/>
+      <c r="S59" s="31"/>
+      <c r="T59" s="52"/>
+      <c r="U59" s="56"/>
+      <c r="V59" s="59"/>
       <c r="W59" s="31"/>
       <c r="X59" s="31"/>
       <c r="Y59" s="31"/>
@@ -3956,16 +4328,17 @@
       <c r="AQ59" s="31"/>
       <c r="AR59" s="31"/>
       <c r="AS59" s="31"/>
-    </row>
-    <row r="60" spans="1:45" ht="15.6">
+      <c r="AT59" s="31"/>
+    </row>
+    <row r="60" spans="1:46" ht="15.6">
       <c r="A60" s="80"/>
       <c r="B60" s="43"/>
       <c r="C60" s="81"/>
       <c r="D60" s="68"/>
       <c r="E60" s="31"/>
       <c r="F60" s="31"/>
-      <c r="G60" s="37"/>
-      <c r="H60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="37"/>
       <c r="I60" s="31"/>
       <c r="J60" s="31"/>
       <c r="K60" s="31"/>
@@ -3976,10 +4349,10 @@
       <c r="P60" s="31"/>
       <c r="Q60" s="31"/>
       <c r="R60" s="31"/>
-      <c r="S60" s="49"/>
-      <c r="T60" s="69"/>
-      <c r="U60" s="59"/>
-      <c r="V60" s="31"/>
+      <c r="S60" s="31"/>
+      <c r="T60" s="49"/>
+      <c r="U60" s="69"/>
+      <c r="V60" s="59"/>
       <c r="W60" s="31"/>
       <c r="X60" s="31"/>
       <c r="Y60" s="31"/>
@@ -4003,16 +4376,17 @@
       <c r="AQ60" s="31"/>
       <c r="AR60" s="31"/>
       <c r="AS60" s="31"/>
-    </row>
-    <row r="61" spans="1:45" ht="15.6">
+      <c r="AT60" s="31"/>
+    </row>
+    <row r="61" spans="1:46" ht="15.6">
       <c r="A61" s="80"/>
       <c r="B61" s="43"/>
       <c r="C61" s="83"/>
       <c r="D61" s="70"/>
       <c r="E61" s="31"/>
       <c r="F61" s="31"/>
-      <c r="G61" s="37"/>
-      <c r="H61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="37"/>
       <c r="I61" s="31"/>
       <c r="J61" s="31"/>
       <c r="K61" s="31"/>
@@ -4023,9 +4397,9 @@
       <c r="P61" s="31"/>
       <c r="Q61" s="31"/>
       <c r="R61" s="31"/>
-      <c r="S61" s="49"/>
-      <c r="T61" s="58"/>
-      <c r="AJ61" s="31"/>
+      <c r="S61" s="31"/>
+      <c r="T61" s="49"/>
+      <c r="U61" s="58"/>
       <c r="AK61" s="31"/>
       <c r="AL61" s="31"/>
       <c r="AM61" s="31"/>
@@ -4035,16 +4409,17 @@
       <c r="AQ61" s="31"/>
       <c r="AR61" s="31"/>
       <c r="AS61" s="31"/>
-    </row>
-    <row r="62" spans="1:45" ht="15.6">
+      <c r="AT61" s="31"/>
+    </row>
+    <row r="62" spans="1:46" ht="15.6">
       <c r="A62" s="46"/>
       <c r="B62" s="46"/>
       <c r="C62" s="83"/>
       <c r="D62" s="70"/>
       <c r="E62" s="31"/>
       <c r="F62" s="31"/>
-      <c r="G62" s="37"/>
-      <c r="H62" s="31"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="37"/>
       <c r="I62" s="31"/>
       <c r="J62" s="31"/>
       <c r="K62" s="31"/>
@@ -4055,9 +4430,9 @@
       <c r="P62" s="31"/>
       <c r="Q62" s="31"/>
       <c r="R62" s="31"/>
-      <c r="S62" s="49"/>
-      <c r="T62" s="58"/>
-      <c r="AJ62" s="31"/>
+      <c r="S62" s="31"/>
+      <c r="T62" s="49"/>
+      <c r="U62" s="58"/>
       <c r="AK62" s="31"/>
       <c r="AL62" s="31"/>
       <c r="AM62" s="31"/>
@@ -4067,16 +4442,17 @@
       <c r="AQ62" s="31"/>
       <c r="AR62" s="31"/>
       <c r="AS62" s="31"/>
-    </row>
-    <row r="63" spans="1:45">
+      <c r="AT62" s="31"/>
+    </row>
+    <row r="63" spans="1:46">
       <c r="A63" s="85"/>
       <c r="B63" s="85"/>
       <c r="C63" s="85"/>
       <c r="D63" s="85"/>
       <c r="E63" s="31"/>
       <c r="F63" s="31"/>
-      <c r="G63" s="37"/>
-      <c r="H63" s="31"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="37"/>
       <c r="I63" s="31"/>
       <c r="J63" s="31"/>
       <c r="K63" s="31"/>
@@ -4089,7 +4465,7 @@
       <c r="R63" s="31"/>
       <c r="S63" s="31"/>
       <c r="T63" s="31"/>
-      <c r="AJ63" s="31"/>
+      <c r="U63" s="31"/>
       <c r="AK63" s="31"/>
       <c r="AL63" s="31"/>
       <c r="AM63" s="31"/>
@@ -4099,16 +4475,17 @@
       <c r="AQ63" s="31"/>
       <c r="AR63" s="31"/>
       <c r="AS63" s="31"/>
-    </row>
-    <row r="64" spans="1:45" ht="16.2">
+      <c r="AT63" s="31"/>
+    </row>
+    <row r="64" spans="1:46" ht="16.2">
       <c r="A64" s="85"/>
       <c r="B64" s="85"/>
       <c r="C64" s="86"/>
       <c r="D64" s="85"/>
       <c r="E64" s="31"/>
       <c r="F64" s="31"/>
-      <c r="G64" s="37"/>
-      <c r="H64" s="31"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="37"/>
       <c r="I64" s="31"/>
       <c r="J64" s="31"/>
       <c r="K64" s="31"/>
@@ -4119,19 +4496,20 @@
       <c r="P64" s="31"/>
       <c r="Q64" s="31"/>
       <c r="R64" s="31"/>
-      <c r="S64" s="63"/>
-      <c r="T64" s="52"/>
-      <c r="U64" s="59"/>
-    </row>
-    <row r="65" spans="1:26">
+      <c r="S64" s="31"/>
+      <c r="T64" s="63"/>
+      <c r="U64" s="52"/>
+      <c r="V64" s="59"/>
+    </row>
+    <row r="65" spans="1:27">
       <c r="A65" s="85"/>
       <c r="B65" s="85"/>
       <c r="C65" s="86"/>
       <c r="D65" s="85"/>
       <c r="E65" s="31"/>
       <c r="F65" s="31"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="37"/>
       <c r="I65" s="31"/>
       <c r="J65" s="31"/>
       <c r="K65" s="31"/>
@@ -4144,758 +4522,809 @@
       <c r="R65" s="31"/>
       <c r="S65" s="31"/>
       <c r="T65" s="31"/>
-      <c r="U65" s="59"/>
-    </row>
-    <row r="66" spans="1:26" ht="16.2">
+      <c r="U65" s="31"/>
+      <c r="V65" s="59"/>
+    </row>
+    <row r="66" spans="1:27" ht="16.2">
       <c r="A66" s="39"/>
       <c r="B66" s="39"/>
       <c r="C66" s="87"/>
       <c r="D66" s="39"/>
-      <c r="E66" s="73"/>
+      <c r="E66" s="39"/>
       <c r="F66" s="39"/>
-      <c r="G66" s="159"/>
-      <c r="H66" s="39"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="155"/>
       <c r="I66" s="39"/>
-      <c r="J66" s="63"/>
-      <c r="K66" s="38"/>
-      <c r="L66" s="31"/>
+      <c r="J66" s="39"/>
+      <c r="K66" s="63"/>
+      <c r="L66" s="38"/>
       <c r="M66" s="31"/>
       <c r="N66" s="31"/>
       <c r="O66" s="31"/>
       <c r="P66" s="31"/>
       <c r="Q66" s="31"/>
       <c r="R66" s="31"/>
-      <c r="S66" s="43"/>
-      <c r="T66" s="88"/>
-      <c r="U66" s="59"/>
-    </row>
-    <row r="67" spans="1:26">
+      <c r="S66" s="31"/>
+      <c r="T66" s="43"/>
+      <c r="U66" s="88"/>
+      <c r="V66" s="59"/>
+    </row>
+    <row r="67" spans="1:27">
       <c r="A67" s="38"/>
       <c r="B67" s="67"/>
       <c r="C67" s="89"/>
       <c r="D67" s="67"/>
-      <c r="E67" s="67"/>
+      <c r="E67" s="40"/>
       <c r="F67" s="40"/>
-      <c r="G67" s="160"/>
-      <c r="H67" s="90"/>
-      <c r="I67" s="40"/>
-      <c r="J67" s="39"/>
+      <c r="G67" s="40"/>
+      <c r="H67" s="156"/>
+      <c r="I67" s="90"/>
+      <c r="J67" s="40"/>
       <c r="K67" s="39"/>
-      <c r="L67" s="31"/>
+      <c r="L67" s="39"/>
       <c r="M67" s="31"/>
       <c r="N67" s="31"/>
       <c r="O67" s="31"/>
       <c r="P67" s="31"/>
       <c r="Q67" s="31"/>
       <c r="R67" s="31"/>
-      <c r="S67" s="43"/>
-      <c r="T67" s="88"/>
-      <c r="U67" s="59"/>
-    </row>
-    <row r="68" spans="1:26">
+      <c r="S67" s="31"/>
+      <c r="T67" s="43"/>
+      <c r="U67" s="88"/>
+      <c r="V67" s="59"/>
+    </row>
+    <row r="68" spans="1:27">
       <c r="A68" s="39"/>
       <c r="B68" s="39"/>
       <c r="C68" s="91"/>
       <c r="D68" s="39"/>
       <c r="E68" s="39"/>
       <c r="F68" s="39"/>
-      <c r="G68" s="159"/>
-      <c r="H68" s="90"/>
-      <c r="I68" s="39"/>
+      <c r="G68" s="39"/>
+      <c r="H68" s="155"/>
+      <c r="I68" s="90"/>
       <c r="J68" s="39"/>
       <c r="K68" s="39"/>
-      <c r="L68" s="31"/>
+      <c r="L68" s="39"/>
       <c r="M68" s="31"/>
       <c r="N68" s="31"/>
       <c r="O68" s="31"/>
       <c r="P68" s="31"/>
       <c r="Q68" s="31"/>
-      <c r="U68" s="59"/>
-    </row>
-    <row r="69" spans="1:26">
+      <c r="R68" s="31"/>
+      <c r="V68" s="59"/>
+    </row>
+    <row r="69" spans="1:27">
       <c r="A69" s="39"/>
       <c r="B69" s="40"/>
       <c r="C69" s="92"/>
       <c r="D69" s="40"/>
-      <c r="E69" s="40"/>
+      <c r="E69" s="39"/>
       <c r="F69" s="39"/>
-      <c r="G69" s="159"/>
-      <c r="H69" s="90"/>
-      <c r="I69" s="40"/>
-      <c r="J69" s="39"/>
-      <c r="K69" s="40"/>
-      <c r="L69" s="31"/>
+      <c r="G69" s="39"/>
+      <c r="H69" s="155"/>
+      <c r="I69" s="90"/>
+      <c r="J69" s="40"/>
+      <c r="K69" s="39"/>
+      <c r="L69" s="40"/>
       <c r="M69" s="31"/>
       <c r="N69" s="31"/>
       <c r="O69" s="31"/>
       <c r="P69" s="31"/>
       <c r="Q69" s="31"/>
-    </row>
-    <row r="70" spans="1:26">
+      <c r="R69" s="31"/>
+    </row>
+    <row r="70" spans="1:27">
       <c r="A70" s="40"/>
       <c r="B70" s="40"/>
       <c r="C70" s="46"/>
       <c r="D70" s="40"/>
       <c r="E70" s="40"/>
       <c r="F70" s="40"/>
-      <c r="G70" s="160"/>
-      <c r="H70" s="44"/>
+      <c r="G70" s="40"/>
+      <c r="H70" s="156"/>
       <c r="I70" s="44"/>
       <c r="J70" s="44"/>
       <c r="K70" s="44"/>
-      <c r="L70" s="31"/>
+      <c r="L70" s="44"/>
       <c r="M70" s="31"/>
       <c r="N70" s="31"/>
       <c r="O70" s="31"/>
       <c r="P70" s="31"/>
       <c r="Q70" s="31"/>
-      <c r="X70" s="93"/>
+      <c r="R70" s="31"/>
       <c r="Y70" s="93"/>
       <c r="Z70" s="93"/>
-    </row>
-    <row r="71" spans="1:26" ht="16.2">
+      <c r="AA70" s="93"/>
+    </row>
+    <row r="71" spans="1:27" ht="16.2">
       <c r="A71" s="94"/>
       <c r="B71" s="50"/>
       <c r="C71" s="50"/>
       <c r="D71" s="50"/>
       <c r="E71" s="51"/>
       <c r="F71" s="51"/>
-      <c r="G71" s="161"/>
-      <c r="H71" s="51"/>
+      <c r="G71" s="51"/>
+      <c r="H71" s="157"/>
       <c r="I71" s="51"/>
       <c r="J71" s="51"/>
-      <c r="K71" s="31"/>
+      <c r="K71" s="51"/>
       <c r="L71" s="31"/>
       <c r="M71" s="31"/>
       <c r="N71" s="31"/>
       <c r="O71" s="31"/>
       <c r="P71" s="31"/>
-      <c r="Q71" s="45"/>
-      <c r="R71" s="39"/>
-      <c r="S71" s="88"/>
-      <c r="T71" s="59"/>
-      <c r="X71" s="95"/>
+      <c r="Q71" s="31"/>
+      <c r="R71" s="45"/>
+      <c r="S71" s="39"/>
+      <c r="T71" s="88"/>
+      <c r="U71" s="59"/>
       <c r="Y71" s="95"/>
       <c r="Z71" s="95"/>
-    </row>
-    <row r="72" spans="1:26" ht="16.2">
+      <c r="AA71" s="95"/>
+    </row>
+    <row r="72" spans="1:27" ht="16.2">
       <c r="A72" s="96"/>
       <c r="B72" s="52"/>
       <c r="C72" s="52"/>
       <c r="D72" s="31"/>
       <c r="E72" s="31"/>
       <c r="F72" s="31"/>
-      <c r="G72" s="37"/>
-      <c r="H72" s="31"/>
+      <c r="G72" s="31"/>
+      <c r="H72" s="37"/>
       <c r="I72" s="31"/>
       <c r="J72" s="31"/>
       <c r="K72" s="31"/>
-      <c r="L72" s="45"/>
+      <c r="L72" s="31"/>
       <c r="M72" s="45"/>
       <c r="N72" s="45"/>
       <c r="O72" s="45"/>
       <c r="P72" s="45"/>
-      <c r="Q72" s="47"/>
-      <c r="R72" s="43"/>
+      <c r="Q72" s="45"/>
+      <c r="R72" s="47"/>
       <c r="S72" s="43"/>
-      <c r="T72" s="59"/>
-      <c r="X72" s="95"/>
+      <c r="T72" s="43"/>
+      <c r="U72" s="59"/>
       <c r="Y72" s="95"/>
       <c r="Z72" s="95"/>
-    </row>
-    <row r="73" spans="1:26" ht="16.2">
+      <c r="AA72" s="95"/>
+    </row>
+    <row r="73" spans="1:27" ht="16.2">
       <c r="A73" s="84"/>
       <c r="B73" s="52"/>
       <c r="C73" s="84"/>
       <c r="D73" s="31"/>
       <c r="E73" s="31"/>
       <c r="F73" s="31"/>
-      <c r="G73" s="37"/>
-      <c r="H73" s="31"/>
+      <c r="G73" s="31"/>
+      <c r="H73" s="37"/>
       <c r="I73" s="31"/>
       <c r="J73" s="31"/>
       <c r="K73" s="31"/>
-      <c r="L73" s="47"/>
+      <c r="L73" s="31"/>
       <c r="M73" s="47"/>
       <c r="N73" s="47"/>
       <c r="O73" s="47"/>
       <c r="P73" s="47"/>
-      <c r="Q73" s="61"/>
-      <c r="R73" s="39"/>
-      <c r="S73" s="43"/>
-      <c r="T73" s="59"/>
-      <c r="X73" s="95"/>
+      <c r="Q73" s="47"/>
+      <c r="R73" s="61"/>
+      <c r="S73" s="39"/>
+      <c r="T73" s="43"/>
+      <c r="U73" s="59"/>
       <c r="Y73" s="95"/>
       <c r="Z73" s="95"/>
-    </row>
-    <row r="74" spans="1:26" ht="16.2">
+      <c r="AA73" s="95"/>
+    </row>
+    <row r="74" spans="1:27" ht="16.2">
       <c r="A74" s="79"/>
       <c r="B74" s="97"/>
       <c r="C74" s="31"/>
       <c r="D74" s="31"/>
       <c r="E74" s="31"/>
       <c r="F74" s="31"/>
-      <c r="G74" s="37"/>
-      <c r="H74" s="31"/>
-      <c r="I74" s="98"/>
-      <c r="J74" s="52"/>
-      <c r="K74" s="114"/>
-      <c r="L74" s="61"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="37"/>
+      <c r="I74" s="31"/>
+      <c r="J74" s="98"/>
+      <c r="K74" s="52"/>
+      <c r="L74" s="114"/>
       <c r="M74" s="61"/>
       <c r="N74" s="61"/>
       <c r="O74" s="61"/>
       <c r="P74" s="61"/>
       <c r="Q74" s="61"/>
-      <c r="R74" s="39"/>
-      <c r="S74" s="43"/>
-      <c r="T74" s="59"/>
-      <c r="X74" s="99"/>
-      <c r="Y74" s="95"/>
+      <c r="R74" s="61"/>
+      <c r="S74" s="39"/>
+      <c r="T74" s="43"/>
+      <c r="U74" s="59"/>
+      <c r="Y74" s="99"/>
       <c r="Z74" s="95"/>
-    </row>
-    <row r="75" spans="1:26" ht="16.2">
+      <c r="AA74" s="95"/>
+    </row>
+    <row r="75" spans="1:27" ht="16.2">
       <c r="A75" s="52"/>
       <c r="B75" s="97"/>
       <c r="C75" s="31"/>
       <c r="D75" s="31"/>
       <c r="E75" s="31"/>
       <c r="F75" s="31"/>
-      <c r="G75" s="37"/>
-      <c r="H75" s="31"/>
-      <c r="I75" s="98"/>
-      <c r="J75" s="100"/>
-      <c r="K75" s="38"/>
-      <c r="L75" s="61"/>
+      <c r="G75" s="31"/>
+      <c r="H75" s="37"/>
+      <c r="I75" s="31"/>
+      <c r="J75" s="98"/>
+      <c r="K75" s="100"/>
+      <c r="L75" s="38"/>
       <c r="M75" s="61"/>
       <c r="N75" s="61"/>
       <c r="O75" s="61"/>
       <c r="P75" s="61"/>
-      <c r="Q75" s="41"/>
-      <c r="R75" s="40"/>
-      <c r="S75" s="88"/>
-      <c r="T75" s="59"/>
-    </row>
-    <row r="76" spans="1:26" ht="15.6">
+      <c r="Q75" s="61"/>
+      <c r="R75" s="41"/>
+      <c r="S75" s="40"/>
+      <c r="T75" s="88"/>
+      <c r="U75" s="59"/>
+    </row>
+    <row r="76" spans="1:27" ht="15.6">
       <c r="A76" s="82"/>
       <c r="B76" s="97"/>
       <c r="C76" s="31"/>
       <c r="D76" s="31"/>
       <c r="E76" s="31"/>
       <c r="F76" s="31"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="31"/>
-      <c r="I76" s="98"/>
-      <c r="J76" s="100"/>
-      <c r="K76" s="43"/>
-      <c r="L76" s="41"/>
+      <c r="G76" s="31"/>
+      <c r="H76" s="37"/>
+      <c r="I76" s="31"/>
+      <c r="J76" s="98"/>
+      <c r="K76" s="100"/>
+      <c r="L76" s="43"/>
       <c r="M76" s="41"/>
       <c r="N76" s="41"/>
       <c r="O76" s="41"/>
       <c r="P76" s="41"/>
-    </row>
-    <row r="77" spans="1:26" ht="16.2">
+      <c r="Q76" s="41"/>
+    </row>
+    <row r="77" spans="1:27" ht="16.2">
       <c r="A77" s="84"/>
       <c r="B77" s="97"/>
       <c r="C77" s="31"/>
       <c r="D77" s="31"/>
       <c r="E77" s="31"/>
       <c r="F77" s="31"/>
-      <c r="G77" s="37"/>
-      <c r="H77" s="31"/>
-      <c r="I77" s="98"/>
-      <c r="J77" s="52"/>
-      <c r="K77" s="43"/>
-      <c r="Q77" s="45"/>
-      <c r="R77" s="52"/>
-      <c r="S77" s="66"/>
-      <c r="T77" s="49"/>
-    </row>
-    <row r="78" spans="1:26" ht="16.2">
+      <c r="G77" s="31"/>
+      <c r="H77" s="37"/>
+      <c r="I77" s="31"/>
+      <c r="J77" s="98"/>
+      <c r="K77" s="52"/>
+      <c r="L77" s="43"/>
+      <c r="R77" s="45"/>
+      <c r="S77" s="52"/>
+      <c r="T77" s="66"/>
+      <c r="U77" s="49"/>
+    </row>
+    <row r="78" spans="1:27" ht="16.2">
       <c r="A78" s="65"/>
       <c r="B78" s="97"/>
       <c r="C78" s="31"/>
       <c r="D78" s="31"/>
       <c r="E78" s="31"/>
       <c r="F78" s="31"/>
-      <c r="G78" s="37"/>
-      <c r="H78" s="31"/>
-      <c r="I78" s="98"/>
-      <c r="J78" s="100"/>
-      <c r="K78" s="43"/>
-      <c r="L78" s="104"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="37"/>
+      <c r="I78" s="31"/>
+      <c r="J78" s="98"/>
+      <c r="K78" s="100"/>
+      <c r="L78" s="43"/>
       <c r="M78" s="104"/>
       <c r="N78" s="104"/>
       <c r="O78" s="104"/>
       <c r="P78" s="104"/>
-      <c r="Q78" s="47"/>
-      <c r="R78" s="49"/>
-      <c r="S78" s="66"/>
-      <c r="T78" s="49"/>
-    </row>
-    <row r="79" spans="1:26" ht="16.2">
+      <c r="Q78" s="104"/>
+      <c r="R78" s="47"/>
+      <c r="S78" s="49"/>
+      <c r="T78" s="66"/>
+      <c r="U78" s="49"/>
+    </row>
+    <row r="79" spans="1:27" ht="16.2">
       <c r="C79" s="101"/>
       <c r="D79" s="49"/>
-      <c r="L79" s="109"/>
       <c r="M79" s="109"/>
       <c r="N79" s="109"/>
       <c r="O79" s="109"/>
       <c r="P79" s="109"/>
-      <c r="Q79" s="61"/>
-      <c r="R79" s="110"/>
-      <c r="S79" s="66"/>
-      <c r="T79" s="49"/>
-    </row>
-    <row r="80" spans="1:26" ht="16.2">
+      <c r="Q79" s="109"/>
+      <c r="R79" s="61"/>
+      <c r="S79" s="110"/>
+      <c r="T79" s="66"/>
+      <c r="U79" s="49"/>
+    </row>
+    <row r="80" spans="1:27" ht="16.2">
       <c r="A80" s="102"/>
       <c r="B80" s="102"/>
       <c r="C80" s="103"/>
       <c r="D80" s="104"/>
-      <c r="E80" s="105"/>
+      <c r="E80" s="104"/>
       <c r="F80" s="104"/>
-      <c r="G80" s="162"/>
-      <c r="H80" s="102"/>
+      <c r="G80" s="104"/>
+      <c r="H80" s="158"/>
       <c r="I80" s="102"/>
       <c r="J80" s="102"/>
-      <c r="K80" s="31"/>
-      <c r="L80" s="104"/>
+      <c r="K80" s="102"/>
+      <c r="L80" s="31"/>
       <c r="M80" s="104"/>
       <c r="N80" s="104"/>
       <c r="O80" s="104"/>
       <c r="P80" s="104"/>
-      <c r="Q80" s="61"/>
-      <c r="R80" s="49"/>
-      <c r="S80" s="101"/>
-      <c r="T80" s="49"/>
-    </row>
-    <row r="81" spans="1:19" ht="15.6">
+      <c r="Q80" s="104"/>
+      <c r="R80" s="61"/>
+      <c r="S80" s="49"/>
+      <c r="T80" s="101"/>
+      <c r="U80" s="49"/>
+    </row>
+    <row r="81" spans="1:20" ht="15.6">
       <c r="A81" s="105"/>
       <c r="B81" s="105"/>
       <c r="C81" s="106"/>
       <c r="D81" s="105"/>
-      <c r="E81" s="105"/>
+      <c r="E81" s="107"/>
       <c r="F81" s="107"/>
-      <c r="G81" s="163"/>
-      <c r="H81" s="108"/>
-      <c r="I81" s="107"/>
-      <c r="J81" s="102"/>
-      <c r="K81" s="31"/>
-      <c r="L81" s="104"/>
+      <c r="G81" s="107"/>
+      <c r="H81" s="159"/>
+      <c r="I81" s="108"/>
+      <c r="J81" s="107"/>
+      <c r="K81" s="102"/>
+      <c r="L81" s="31"/>
       <c r="M81" s="104"/>
       <c r="N81" s="104"/>
       <c r="O81" s="104"/>
       <c r="P81" s="104"/>
-      <c r="Q81" s="41"/>
-      <c r="R81" s="49"/>
-      <c r="S81" s="101"/>
-    </row>
-    <row r="82" spans="1:19">
+      <c r="Q81" s="104"/>
+      <c r="R81" s="41"/>
+      <c r="S81" s="49"/>
+      <c r="T81" s="101"/>
+    </row>
+    <row r="82" spans="1:20">
       <c r="A82" s="102"/>
       <c r="B82" s="102"/>
       <c r="C82" s="102"/>
       <c r="D82" s="102"/>
       <c r="E82" s="102"/>
       <c r="F82" s="102"/>
-      <c r="G82" s="164"/>
-      <c r="H82" s="102"/>
-      <c r="I82" s="107"/>
-      <c r="J82" s="102"/>
-      <c r="K82" s="31"/>
-      <c r="L82" s="41"/>
+      <c r="G82" s="102"/>
+      <c r="H82" s="160"/>
+      <c r="I82" s="102"/>
+      <c r="J82" s="107"/>
+      <c r="K82" s="102"/>
+      <c r="L82" s="31"/>
       <c r="M82" s="41"/>
       <c r="N82" s="41"/>
       <c r="O82" s="41"/>
       <c r="P82" s="41"/>
-    </row>
-    <row r="83" spans="1:19">
+      <c r="Q82" s="41"/>
+    </row>
+    <row r="83" spans="1:20">
       <c r="A83" s="102"/>
       <c r="B83" s="107"/>
       <c r="C83" s="107"/>
       <c r="D83" s="107"/>
-      <c r="E83" s="107"/>
+      <c r="E83" s="102"/>
       <c r="F83" s="102"/>
-      <c r="G83" s="164"/>
-      <c r="H83" s="106"/>
-      <c r="I83" s="107"/>
-      <c r="J83" s="102"/>
-      <c r="K83" s="31"/>
-    </row>
-    <row r="84" spans="1:19" ht="16.2">
+      <c r="G83" s="102"/>
+      <c r="H83" s="160"/>
+      <c r="I83" s="106"/>
+      <c r="J83" s="107"/>
+      <c r="K83" s="102"/>
+      <c r="L83" s="31"/>
+    </row>
+    <row r="84" spans="1:20" ht="16.2">
       <c r="A84" s="107"/>
       <c r="B84" s="102"/>
       <c r="C84" s="107"/>
       <c r="D84" s="107"/>
       <c r="E84" s="107"/>
       <c r="F84" s="107"/>
-      <c r="G84" s="163"/>
-      <c r="H84" s="106"/>
-      <c r="I84" s="107"/>
-      <c r="J84" s="102"/>
-      <c r="K84" s="31"/>
-      <c r="Q84" s="45"/>
-    </row>
-    <row r="85" spans="1:19" ht="16.2">
+      <c r="G84" s="107"/>
+      <c r="H84" s="159"/>
+      <c r="I84" s="106"/>
+      <c r="J84" s="107"/>
+      <c r="K84" s="102"/>
+      <c r="L84" s="31"/>
+      <c r="R84" s="45"/>
+    </row>
+    <row r="85" spans="1:20" ht="16.2">
       <c r="C85" s="111"/>
-      <c r="I85" s="99"/>
-      <c r="J85" s="95"/>
-      <c r="L85" s="104"/>
+      <c r="J85" s="99"/>
+      <c r="K85" s="95"/>
       <c r="M85" s="104"/>
       <c r="N85" s="104"/>
       <c r="O85" s="104"/>
       <c r="P85" s="104"/>
-      <c r="Q85" s="47"/>
-    </row>
-    <row r="86" spans="1:19" ht="16.2">
-      <c r="L86" s="109"/>
+      <c r="Q85" s="104"/>
+      <c r="R85" s="47"/>
+    </row>
+    <row r="86" spans="1:20" ht="16.2">
       <c r="M86" s="109"/>
       <c r="N86" s="109"/>
       <c r="O86" s="109"/>
       <c r="P86" s="109"/>
-      <c r="Q86" s="61"/>
-    </row>
-    <row r="87" spans="1:19" ht="16.2">
+      <c r="Q86" s="109"/>
+      <c r="R86" s="61"/>
+    </row>
+    <row r="87" spans="1:20" ht="16.2">
       <c r="B87" s="102"/>
       <c r="C87" s="103"/>
       <c r="D87" s="104"/>
-      <c r="E87" s="105"/>
+      <c r="E87" s="104"/>
       <c r="F87" s="104"/>
-      <c r="G87" s="162"/>
-      <c r="H87" s="102"/>
+      <c r="G87" s="104"/>
+      <c r="H87" s="158"/>
       <c r="I87" s="102"/>
       <c r="J87" s="102"/>
-      <c r="K87" s="31"/>
-      <c r="L87" s="104"/>
+      <c r="K87" s="102"/>
+      <c r="L87" s="31"/>
       <c r="M87" s="104"/>
       <c r="N87" s="104"/>
       <c r="O87" s="104"/>
       <c r="P87" s="104"/>
-      <c r="Q87" s="61"/>
-    </row>
-    <row r="88" spans="1:19">
+      <c r="Q87" s="104"/>
+      <c r="R87" s="61"/>
+    </row>
+    <row r="88" spans="1:20">
       <c r="B88" s="105"/>
       <c r="C88" s="106"/>
       <c r="D88" s="105"/>
-      <c r="E88" s="105"/>
+      <c r="E88" s="107"/>
       <c r="F88" s="107"/>
-      <c r="G88" s="163"/>
-      <c r="H88" s="108"/>
-      <c r="I88" s="107"/>
-      <c r="J88" s="102"/>
-      <c r="K88" s="31"/>
-      <c r="L88" s="104"/>
+      <c r="G88" s="107"/>
+      <c r="H88" s="159"/>
+      <c r="I88" s="108"/>
+      <c r="J88" s="107"/>
+      <c r="K88" s="102"/>
+      <c r="L88" s="31"/>
       <c r="M88" s="104"/>
       <c r="N88" s="104"/>
       <c r="O88" s="104"/>
       <c r="P88" s="104"/>
-      <c r="Q88" s="41"/>
-    </row>
-    <row r="89" spans="1:19">
+      <c r="Q88" s="104"/>
+      <c r="R88" s="41"/>
+    </row>
+    <row r="89" spans="1:20">
       <c r="B89" s="102"/>
       <c r="C89" s="102"/>
       <c r="D89" s="102"/>
       <c r="E89" s="102"/>
       <c r="F89" s="102"/>
-      <c r="G89" s="164"/>
-      <c r="H89" s="102"/>
-      <c r="I89" s="107"/>
-      <c r="J89" s="102"/>
-      <c r="K89" s="31"/>
-      <c r="L89" s="41"/>
+      <c r="G89" s="102"/>
+      <c r="H89" s="160"/>
+      <c r="I89" s="102"/>
+      <c r="J89" s="107"/>
+      <c r="K89" s="102"/>
+      <c r="L89" s="31"/>
       <c r="M89" s="41"/>
       <c r="N89" s="41"/>
       <c r="O89" s="41"/>
       <c r="P89" s="41"/>
-    </row>
-    <row r="90" spans="1:19">
+      <c r="Q89" s="41"/>
+    </row>
+    <row r="90" spans="1:20">
       <c r="B90" s="107"/>
       <c r="C90" s="107"/>
       <c r="D90" s="107"/>
-      <c r="E90" s="107"/>
+      <c r="E90" s="102"/>
       <c r="F90" s="102"/>
-      <c r="G90" s="164"/>
-      <c r="H90" s="106"/>
-      <c r="I90" s="107"/>
-      <c r="J90" s="102"/>
-      <c r="K90" s="31"/>
-    </row>
-    <row r="91" spans="1:19" ht="16.2">
+      <c r="G90" s="102"/>
+      <c r="H90" s="160"/>
+      <c r="I90" s="106"/>
+      <c r="J90" s="107"/>
+      <c r="K90" s="102"/>
+      <c r="L90" s="31"/>
+    </row>
+    <row r="91" spans="1:20" ht="16.2">
       <c r="B91" s="102"/>
       <c r="C91" s="107"/>
       <c r="D91" s="107"/>
       <c r="E91" s="107"/>
       <c r="F91" s="107"/>
-      <c r="G91" s="163"/>
-      <c r="H91" s="106"/>
-      <c r="I91" s="107"/>
-      <c r="J91" s="102"/>
-      <c r="K91" s="31"/>
-      <c r="L91" s="45"/>
+      <c r="G91" s="107"/>
+      <c r="H91" s="159"/>
+      <c r="I91" s="106"/>
+      <c r="J91" s="107"/>
+      <c r="K91" s="102"/>
+      <c r="L91" s="31"/>
       <c r="M91" s="45"/>
       <c r="N91" s="45"/>
       <c r="O91" s="45"/>
       <c r="P91" s="45"/>
-    </row>
-    <row r="92" spans="1:19" ht="16.2">
-      <c r="L92" s="47"/>
+      <c r="Q91" s="45"/>
+    </row>
+    <row r="92" spans="1:20" ht="16.2">
       <c r="M92" s="47"/>
       <c r="N92" s="47"/>
       <c r="O92" s="47"/>
       <c r="P92" s="47"/>
-    </row>
-    <row r="93" spans="1:19" ht="16.2">
+      <c r="Q92" s="47"/>
+    </row>
+    <row r="93" spans="1:20" ht="16.2">
       <c r="A93" s="39"/>
       <c r="B93" s="97"/>
       <c r="C93" s="31"/>
       <c r="D93" s="31"/>
       <c r="E93" s="31"/>
       <c r="F93" s="31"/>
-      <c r="G93" s="37"/>
-      <c r="H93" s="31"/>
-      <c r="I93" s="98"/>
-      <c r="J93" s="100"/>
-      <c r="K93" s="38"/>
-      <c r="L93" s="61"/>
+      <c r="G93" s="31"/>
+      <c r="H93" s="37"/>
+      <c r="I93" s="31"/>
+      <c r="J93" s="98"/>
+      <c r="K93" s="100"/>
+      <c r="L93" s="38"/>
       <c r="M93" s="61"/>
       <c r="N93" s="61"/>
       <c r="O93" s="61"/>
       <c r="P93" s="61"/>
-    </row>
-    <row r="94" spans="1:19" ht="16.2">
+      <c r="Q93" s="61"/>
+    </row>
+    <row r="94" spans="1:20" ht="16.2">
       <c r="A94" s="38"/>
       <c r="B94" s="97"/>
       <c r="C94" s="31"/>
       <c r="D94" s="31"/>
       <c r="E94" s="31"/>
       <c r="F94" s="31"/>
-      <c r="G94" s="37"/>
-      <c r="H94" s="31"/>
-      <c r="I94" s="98"/>
-      <c r="J94" s="100"/>
-      <c r="K94" s="38"/>
-      <c r="L94" s="61"/>
+      <c r="G94" s="31"/>
+      <c r="H94" s="37"/>
+      <c r="I94" s="31"/>
+      <c r="J94" s="98"/>
+      <c r="K94" s="100"/>
+      <c r="L94" s="38"/>
       <c r="M94" s="61"/>
       <c r="N94" s="61"/>
       <c r="O94" s="61"/>
       <c r="P94" s="61"/>
-    </row>
-    <row r="95" spans="1:19" ht="15.6">
+      <c r="Q94" s="61"/>
+    </row>
+    <row r="95" spans="1:20" ht="15.6">
       <c r="B95" s="97"/>
       <c r="C95" s="31"/>
       <c r="D95" s="31"/>
       <c r="E95" s="31"/>
       <c r="F95" s="31"/>
-      <c r="G95" s="37"/>
-      <c r="H95" s="31"/>
-      <c r="I95" s="98"/>
-      <c r="J95" s="100"/>
-      <c r="K95" s="43"/>
-      <c r="L95" s="41"/>
+      <c r="G95" s="31"/>
+      <c r="H95" s="37"/>
+      <c r="I95" s="31"/>
+      <c r="J95" s="98"/>
+      <c r="K95" s="100"/>
+      <c r="L95" s="43"/>
       <c r="M95" s="41"/>
       <c r="N95" s="41"/>
       <c r="O95" s="41"/>
       <c r="P95" s="41"/>
-    </row>
-    <row r="96" spans="1:19" ht="15.6">
+      <c r="Q95" s="41"/>
+    </row>
+    <row r="96" spans="1:20" ht="15.6">
       <c r="B96" s="97"/>
       <c r="C96" s="31"/>
       <c r="D96" s="31"/>
       <c r="E96" s="31"/>
       <c r="F96" s="31"/>
-      <c r="G96" s="37"/>
-      <c r="H96" s="31"/>
-      <c r="I96" s="98"/>
-      <c r="J96" s="52"/>
-      <c r="K96" s="43"/>
-    </row>
-    <row r="97" spans="1:11" ht="15.6">
+      <c r="G96" s="31"/>
+      <c r="H96" s="37"/>
+      <c r="I96" s="31"/>
+      <c r="J96" s="98"/>
+      <c r="K96" s="52"/>
+      <c r="L96" s="43"/>
+    </row>
+    <row r="97" spans="1:12" ht="15.6">
       <c r="B97" s="97"/>
       <c r="C97" s="31"/>
       <c r="D97" s="31"/>
       <c r="E97" s="31"/>
       <c r="F97" s="31"/>
-      <c r="G97" s="37"/>
-      <c r="H97" s="31"/>
-      <c r="I97" s="98"/>
-      <c r="J97" s="100"/>
-      <c r="K97" s="43"/>
-    </row>
-    <row r="99" spans="1:11" ht="15.6">
+      <c r="G97" s="31"/>
+      <c r="H97" s="37"/>
+      <c r="I97" s="31"/>
+      <c r="J97" s="98"/>
+      <c r="K97" s="100"/>
+      <c r="L97" s="43"/>
+    </row>
+    <row r="99" spans="1:12" ht="15.6">
       <c r="A99" s="39"/>
       <c r="B99" s="97"/>
       <c r="C99" s="31"/>
       <c r="D99" s="31"/>
       <c r="E99" s="31"/>
       <c r="F99" s="31"/>
-      <c r="G99" s="37"/>
-      <c r="H99" s="31"/>
-      <c r="I99" s="98"/>
-      <c r="J99" s="100"/>
-      <c r="K99" s="38"/>
-    </row>
-    <row r="100" spans="1:11" ht="15.6">
+      <c r="G99" s="31"/>
+      <c r="H99" s="37"/>
+      <c r="I99" s="31"/>
+      <c r="J99" s="98"/>
+      <c r="K99" s="100"/>
+      <c r="L99" s="38"/>
+    </row>
+    <row r="100" spans="1:12" ht="15.6">
       <c r="A100" s="38"/>
       <c r="B100" s="97"/>
       <c r="C100" s="31"/>
       <c r="D100" s="31"/>
       <c r="E100" s="31"/>
       <c r="F100" s="31"/>
-      <c r="G100" s="37"/>
-      <c r="H100" s="31"/>
-      <c r="I100" s="98"/>
-      <c r="J100" s="100"/>
-      <c r="K100" s="38"/>
-    </row>
-    <row r="101" spans="1:11" ht="15.6">
+      <c r="G100" s="31"/>
+      <c r="H100" s="37"/>
+      <c r="I100" s="31"/>
+      <c r="J100" s="98"/>
+      <c r="K100" s="100"/>
+      <c r="L100" s="38"/>
+    </row>
+    <row r="101" spans="1:12" ht="15.6">
       <c r="B101" s="97"/>
       <c r="C101" s="31"/>
       <c r="D101" s="31"/>
       <c r="E101" s="31"/>
       <c r="F101" s="31"/>
-      <c r="G101" s="37"/>
-      <c r="H101" s="31"/>
-      <c r="I101" s="98"/>
-      <c r="J101" s="100"/>
-      <c r="K101" s="43"/>
-    </row>
-    <row r="102" spans="1:11" ht="15.6">
+      <c r="G101" s="31"/>
+      <c r="H101" s="37"/>
+      <c r="I101" s="31"/>
+      <c r="J101" s="98"/>
+      <c r="K101" s="100"/>
+      <c r="L101" s="43"/>
+    </row>
+    <row r="102" spans="1:12" ht="15.6">
       <c r="B102" s="97"/>
       <c r="C102" s="31"/>
       <c r="D102" s="31"/>
       <c r="E102" s="31"/>
       <c r="F102" s="31"/>
-      <c r="G102" s="37"/>
-      <c r="H102" s="31"/>
-      <c r="I102" s="98"/>
-      <c r="J102" s="52"/>
-      <c r="K102" s="43"/>
-    </row>
-    <row r="103" spans="1:11" ht="15.6">
+      <c r="G102" s="31"/>
+      <c r="H102" s="37"/>
+      <c r="I102" s="31"/>
+      <c r="J102" s="98"/>
+      <c r="K102" s="52"/>
+      <c r="L102" s="43"/>
+    </row>
+    <row r="103" spans="1:12" ht="15.6">
       <c r="B103" s="97"/>
       <c r="C103" s="31"/>
       <c r="D103" s="31"/>
       <c r="E103" s="31"/>
       <c r="F103" s="31"/>
-      <c r="G103" s="37"/>
-      <c r="H103" s="31"/>
-      <c r="I103" s="98"/>
-      <c r="J103" s="100"/>
-      <c r="K103" s="43"/>
-    </row>
-    <row r="105" spans="1:11" ht="15.6">
+      <c r="G103" s="31"/>
+      <c r="H103" s="37"/>
+      <c r="I103" s="31"/>
+      <c r="J103" s="98"/>
+      <c r="K103" s="100"/>
+      <c r="L103" s="43"/>
+    </row>
+    <row r="105" spans="1:12" ht="15.6">
       <c r="A105" s="39"/>
       <c r="B105" s="88"/>
       <c r="C105" s="59"/>
       <c r="D105" s="59"/>
       <c r="E105" s="59"/>
       <c r="F105" s="59"/>
-      <c r="G105" s="165"/>
-      <c r="H105" s="59"/>
-      <c r="I105" s="69"/>
-      <c r="J105" s="52"/>
-      <c r="K105" s="114"/>
-    </row>
-    <row r="106" spans="1:11" ht="15.6">
+      <c r="G105" s="59"/>
+      <c r="H105" s="161"/>
+      <c r="I105" s="59"/>
+      <c r="J105" s="69"/>
+      <c r="K105" s="52"/>
+      <c r="L105" s="114"/>
+    </row>
+    <row r="106" spans="1:12" ht="15.6">
       <c r="A106" s="43"/>
       <c r="B106" s="88"/>
       <c r="C106" s="59"/>
       <c r="D106" s="59"/>
       <c r="E106" s="59"/>
       <c r="F106" s="59"/>
-      <c r="G106" s="165"/>
-      <c r="H106" s="59"/>
-      <c r="I106" s="69"/>
-      <c r="J106" s="100"/>
-      <c r="K106" s="43"/>
-    </row>
-    <row r="107" spans="1:11" ht="15.6">
+      <c r="G106" s="59"/>
+      <c r="H106" s="161"/>
+      <c r="I106" s="59"/>
+      <c r="J106" s="69"/>
+      <c r="K106" s="100"/>
+      <c r="L106" s="43"/>
+    </row>
+    <row r="107" spans="1:12" ht="15.6">
       <c r="A107" s="39"/>
       <c r="B107" s="88"/>
       <c r="C107" s="59"/>
       <c r="D107" s="59"/>
       <c r="E107" s="59"/>
       <c r="F107" s="59"/>
-      <c r="G107" s="165"/>
-      <c r="H107" s="59"/>
-      <c r="I107" s="69"/>
-      <c r="J107" s="100"/>
-      <c r="K107" s="43"/>
-    </row>
-    <row r="108" spans="1:11" ht="15.6">
+      <c r="G107" s="59"/>
+      <c r="H107" s="161"/>
+      <c r="I107" s="59"/>
+      <c r="J107" s="69"/>
+      <c r="K107" s="100"/>
+      <c r="L107" s="43"/>
+    </row>
+    <row r="108" spans="1:12" ht="15.6">
       <c r="A108" s="39"/>
       <c r="B108" s="88"/>
       <c r="C108" s="59"/>
       <c r="D108" s="59"/>
       <c r="E108" s="59"/>
       <c r="F108" s="59"/>
-      <c r="G108" s="165"/>
-      <c r="H108" s="59"/>
-      <c r="I108" s="69"/>
-      <c r="J108" s="52"/>
-      <c r="K108" s="43"/>
-    </row>
-    <row r="109" spans="1:11" ht="15.6">
+      <c r="G108" s="59"/>
+      <c r="H108" s="161"/>
+      <c r="I108" s="59"/>
+      <c r="J108" s="69"/>
+      <c r="K108" s="52"/>
+      <c r="L108" s="43"/>
+    </row>
+    <row r="109" spans="1:12" ht="15.6">
       <c r="A109" s="40"/>
       <c r="B109" s="88"/>
       <c r="C109" s="59"/>
       <c r="D109" s="59"/>
       <c r="E109" s="59"/>
       <c r="F109" s="59"/>
-      <c r="G109" s="165"/>
-      <c r="H109" s="59"/>
-      <c r="I109" s="69"/>
-      <c r="J109" s="100"/>
-      <c r="K109" s="43"/>
+      <c r="G109" s="59"/>
+      <c r="H109" s="161"/>
+      <c r="I109" s="59"/>
+      <c r="J109" s="69"/>
+      <c r="K109" s="100"/>
+      <c r="L109" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="49">
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
+  <mergeCells count="61">
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="A23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="A25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="A27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="I31:J32"/>
+    <mergeCell ref="I29:J30"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="A13:L13"/>
+    <mergeCell ref="A7:L7"/>
+    <mergeCell ref="A8:L8"/>
+    <mergeCell ref="A9:L9"/>
+    <mergeCell ref="A10:L10"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="K19:L20"/>
+    <mergeCell ref="I19:J20"/>
+    <mergeCell ref="D16:J16"/>
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="I25:J26"/>
+    <mergeCell ref="I27:J28"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="H25:H26"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="I33:J34"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K34:L34"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="A19:D20"/>
-    <mergeCell ref="E19:F20"/>
     <mergeCell ref="A43:C43"/>
-    <mergeCell ref="E33:F34"/>
-    <mergeCell ref="E31:F32"/>
-    <mergeCell ref="E29:F30"/>
-    <mergeCell ref="E27:F28"/>
-    <mergeCell ref="J33:K34"/>
-    <mergeCell ref="E21:F22"/>
-    <mergeCell ref="E23:F24"/>
-    <mergeCell ref="E25:F26"/>
-    <mergeCell ref="J21:K22"/>
-    <mergeCell ref="J23:K24"/>
-    <mergeCell ref="J25:K26"/>
-    <mergeCell ref="J27:K28"/>
-    <mergeCell ref="J29:K30"/>
-    <mergeCell ref="H21:I22"/>
-    <mergeCell ref="H29:I30"/>
-    <mergeCell ref="H31:I32"/>
-    <mergeCell ref="H33:I34"/>
-    <mergeCell ref="H23:I24"/>
-    <mergeCell ref="H25:I26"/>
-    <mergeCell ref="H27:I28"/>
-    <mergeCell ref="L14:Q14"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="J31:K32"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="A25:D26"/>
-    <mergeCell ref="A27:D28"/>
-    <mergeCell ref="J19:K20"/>
-    <mergeCell ref="H19:I20"/>
-    <mergeCell ref="D16:I16"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A13:K13"/>
-    <mergeCell ref="A7:K7"/>
-    <mergeCell ref="A8:K8"/>
-    <mergeCell ref="A9:K9"/>
-    <mergeCell ref="A10:K10"/>
-    <mergeCell ref="A11:K11"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="I21:J22"/>
+    <mergeCell ref="I23:J24"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.2" top="0.37" bottom="0" header="0.35" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
